--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GRE\gregmat-gre-words-all-master\GREGMAT_STREAMLIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66115D4-6821-4342-B361-5FB80AE54308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D561C8FB-6490-4849-9026-5725ABB53332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B5DE0D44-D54A-486B-A645-FB03FF95277D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="635">
   <si>
     <t>words</t>
   </si>
@@ -1135,6 +1135,816 @@
   </si>
   <si>
     <t>Unable to make a decision, he continued to vacillate between the two options, unsure of which to choose.</t>
+  </si>
+  <si>
+    <t>not warm or friendly; impersonal</t>
+  </si>
+  <si>
+    <t>a disturbingly loud noise</t>
+  </si>
+  <si>
+    <t>adhering to established practices or accepted standards</t>
+  </si>
+  <si>
+    <t>prove a belief or idea false</t>
+  </si>
+  <si>
+    <t>exceptionally small in size or stature</t>
+  </si>
+  <si>
+    <t>able to be recognized or understood</t>
+  </si>
+  <si>
+    <t>hard to understand; mysterious</t>
+  </si>
+  <si>
+    <t>emotionally distanced from someone</t>
+  </si>
+  <si>
+    <t>excessive, especially in terms of cost</t>
+  </si>
+  <si>
+    <t>highly imaginative; unrealistic</t>
+  </si>
+  <si>
+    <t>lacking in seriousness or importance; silly</t>
+  </si>
+  <si>
+    <t>composed of varying, diverse elements</t>
+  </si>
+  <si>
+    <t>having an arrogant or domineering manner</t>
+  </si>
+  <si>
+    <t>disrespectful or inappropriate</t>
+  </si>
+  <si>
+    <t>infringing on other's privacy</t>
+  </si>
+  <si>
+    <t>uncertain or lacking determination</t>
+  </si>
+  <si>
+    <t>not diligent or careful; casual</t>
+  </si>
+  <si>
+    <t>worthy of admiration or praise</t>
+  </si>
+  <si>
+    <t>treat someone or something as insignificant</t>
+  </si>
+  <si>
+    <t>a stylish and confident manner</t>
+  </si>
+  <si>
+    <t>moving slowly or laboriously</t>
+  </si>
+  <si>
+    <t>straightforward; unoriginal; unimaginative</t>
+  </si>
+  <si>
+    <t>serving to correct or cure something</t>
+  </si>
+  <si>
+    <t>demonstrating difficulty in staying still</t>
+  </si>
+  <si>
+    <t>happening occasionally and irregularly</t>
+  </si>
+  <si>
+    <t>label or mark as disgraceful</t>
+  </si>
+  <si>
+    <t>completely and without exception</t>
+  </si>
+  <si>
+    <t>weaken or sabotage, often subtly</t>
+  </si>
+  <si>
+    <t>feeling tired or exhausted</t>
+  </si>
+  <si>
+    <t>intensely passionate</t>
+  </si>
+  <si>
+    <t>Aloof</t>
+  </si>
+  <si>
+    <t>Despite his colleagues' attempts to engage him, he remained aloof, preferring to work in solitude and keep his distance.</t>
+  </si>
+  <si>
+    <t>Clangor</t>
+  </si>
+  <si>
+    <t>The constant clangor of construction outside her window made it difficult to focus on her studies.</t>
+  </si>
+  <si>
+    <t>Conventional</t>
+  </si>
+  <si>
+    <t>Her conventional approach to solving problems often clashed with her colleague's innovative methods.</t>
+  </si>
+  <si>
+    <t>Debunk</t>
+  </si>
+  <si>
+    <t>The scientist aimed to debunk the myths surrounding the new technology by presenting solid evidence against them.</t>
+  </si>
+  <si>
+    <t>Diminutive</t>
+  </si>
+  <si>
+    <t>The diminutive statue, though small in size, held great historical significance for the community.</t>
+  </si>
+  <si>
+    <t>Discernible</t>
+  </si>
+  <si>
+    <t>Despite the thick fog, the outline of the mountains was still discernible in the distance.</t>
+  </si>
+  <si>
+    <t>Enigmatic</t>
+  </si>
+  <si>
+    <t>The artist's enigmatic smile in the portrait has intrigued art enthusiasts for centuries.</t>
+  </si>
+  <si>
+    <t>Estranged</t>
+  </si>
+  <si>
+    <t>After years of estrangement, the estranged siblings finally reconciled during the family reunion.</t>
+  </si>
+  <si>
+    <t>Extravagant</t>
+  </si>
+  <si>
+    <t>His extravagant spending habits quickly depleted his savings, leaving him in financial trouble.</t>
+  </si>
+  <si>
+    <t>Fanciful</t>
+  </si>
+  <si>
+    <t>The novel's fanciful plot, filled with magical creatures and otherworldly adventures, captivated readers of all ages.</t>
+  </si>
+  <si>
+    <t>Frivolous</t>
+  </si>
+  <si>
+    <t>The committee dismissed her concerns as frivolous, focusing instead on more pressing matters.</t>
+  </si>
+  <si>
+    <t>Heterogeneous</t>
+  </si>
+  <si>
+    <t>The city's heterogeneous population contributed to its rich cultural diversity and vibrant atmosphere.</t>
+  </si>
+  <si>
+    <t>Imperious</t>
+  </si>
+  <si>
+    <t>The manager's imperious demeanor often intimidated her subordinates, making it difficult for them to express their opinions.</t>
+  </si>
+  <si>
+    <t>Impertinent</t>
+  </si>
+  <si>
+    <t>His impertinent remarks during the meeting earned him a stern reprimand from the supervisor.</t>
+  </si>
+  <si>
+    <t>Invasive</t>
+  </si>
+  <si>
+    <t>The invasive species quickly spread throughout the ecosystem, outcompeting native plants and animals.</t>
+  </si>
+  <si>
+    <t>Irresolute</t>
+  </si>
+  <si>
+    <t>His irresolute nature made him a poor leader, as he struggled to make decisive decisions.</t>
+  </si>
+  <si>
+    <t>Laudable</t>
+  </si>
+  <si>
+    <t>The team's laudable efforts to clean up the beach were appreciated by the entire community.</t>
+  </si>
+  <si>
+    <t>Lax</t>
+  </si>
+  <si>
+    <t>The lax security measures at the event led to several unauthorized entries.</t>
+  </si>
+  <si>
+    <t>Marginalize</t>
+  </si>
+  <si>
+    <t>The policies disproportionately marginalized certain groups, limiting their access to essential services.</t>
+  </si>
+  <si>
+    <t>Panache</t>
+  </si>
+  <si>
+    <t>She delivered her speech with such panache that the audience was captivated from start to finish.</t>
+  </si>
+  <si>
+    <t>Plodding</t>
+  </si>
+  <si>
+    <t>The plodding pace of the movie made it difficult to stay engaged throughout the entire runtime.</t>
+  </si>
+  <si>
+    <t>Prosaic</t>
+  </si>
+  <si>
+    <t>The author's prosaic writing style lacked the vivid descriptions and imaginative elements found in her earlier works.</t>
+  </si>
+  <si>
+    <t>Remedial</t>
+  </si>
+  <si>
+    <t>He enrolled in a remedial math course to improve his skills and prepare for the upcoming exam.</t>
+  </si>
+  <si>
+    <t>Restive</t>
+  </si>
+  <si>
+    <t>The restive crowd grew increasingly impatient as the concert was delayed further.</t>
+  </si>
+  <si>
+    <t>Sporadic</t>
+  </si>
+  <si>
+    <t>The sporadic power outages in the area caused frequent disruptions to daily life.</t>
+  </si>
+  <si>
+    <t>Stigmatize</t>
+  </si>
+  <si>
+    <t>Society often stigmatizes mental illness, making it harder for individuals to seek help.</t>
+  </si>
+  <si>
+    <t>Undermine</t>
+  </si>
+  <si>
+    <t>The constant criticism from his peers began to undermine his confidence in his abilities.</t>
+  </si>
+  <si>
+    <t>Utterly</t>
+  </si>
+  <si>
+    <t>She was utterly exhausted after completing the marathon, having pushed herself to the limit.</t>
+  </si>
+  <si>
+    <t>Weary</t>
+  </si>
+  <si>
+    <t>After hours of driving, he felt weary and decided to rest before continuing his journey.</t>
+  </si>
+  <si>
+    <t>Zealous</t>
+  </si>
+  <si>
+    <t>The zealous activist tirelessly campaigned for environmental conservation, inspiring others to join the cause.</t>
+  </si>
+  <si>
+    <t>admonish</t>
+  </si>
+  <si>
+    <t>warn or reprimand someone firmly.</t>
+  </si>
+  <si>
+    <t>The teacher admonished the students for talking during the lecture, reminding them to focus on the lesson.</t>
+  </si>
+  <si>
+    <t>aesthetic</t>
+  </si>
+  <si>
+    <t>concerned with beauty or the appreciation of beauty.</t>
+  </si>
+  <si>
+    <t>The designer’s aesthetic choices in the minimalist home interior were praised for their elegance and simplicity.</t>
+  </si>
+  <si>
+    <t>affectation</t>
+  </si>
+  <si>
+    <t>behavior, speech, or writing that is pretentious and designed to impress.</t>
+  </si>
+  <si>
+    <t>His British accent seemed like an affectation, as he had never even been to the UK.</t>
+  </si>
+  <si>
+    <t>alleviate</t>
+  </si>
+  <si>
+    <t>make (suffering, deficiency, or a problem) less severe.</t>
+  </si>
+  <si>
+    <t>The doctor prescribed medication to alleviate the patient’s chronic pain.</t>
+  </si>
+  <si>
+    <t>analogous</t>
+  </si>
+  <si>
+    <t>comparable in certain respects, typically in a way which makes clearer the nature of the things compared.</t>
+  </si>
+  <si>
+    <t>The heart’s function in the body is analogous to a pump, circulating blood through the system.</t>
+  </si>
+  <si>
+    <t>bolster</t>
+  </si>
+  <si>
+    <t>support or strengthen.</t>
+  </si>
+  <si>
+    <t>The recent data bolstered her argument that the company needed to invest more in marketing.</t>
+  </si>
+  <si>
+    <t>chauvinistic</t>
+  </si>
+  <si>
+    <t>feeling or displaying aggressive or exaggerated patriotism.</t>
+  </si>
+  <si>
+    <t>His chauvinistic remarks about women in the workplace quickly earned him a reputation as being sexist.</t>
+  </si>
+  <si>
+    <t>connoisseur</t>
+  </si>
+  <si>
+    <t>an expert judge in matters of taste.</t>
+  </si>
+  <si>
+    <t>As a wine connoisseur, she could easily distinguish between a vintage Bordeaux and an ordinary table wine.</t>
+  </si>
+  <si>
+    <t>dissemble</t>
+  </si>
+  <si>
+    <t>conceal or disguise one's true feelings or beliefs.</t>
+  </si>
+  <si>
+    <t>Rather than admit he had made a mistake, he chose to dissemble, pretending everything was under control.</t>
+  </si>
+  <si>
+    <t>dogged</t>
+  </si>
+  <si>
+    <t>having or showing tenacity and grim persistence.</t>
+  </si>
+  <si>
+    <t>Her dogged determination to complete the marathon, despite the harsh weather, was truly inspiring.</t>
+  </si>
+  <si>
+    <t>dupe</t>
+  </si>
+  <si>
+    <t>deceive; trick.</t>
+  </si>
+  <si>
+    <t>The scam artist duped the elderly man into giving away his life savings by posing as a bank representative.</t>
+  </si>
+  <si>
+    <t>empirical</t>
+  </si>
+  <si>
+    <t>based on, concerned with, or verifiable by observation or experience rather than theory or pure logic.</t>
+  </si>
+  <si>
+    <t>The researcher relied on empirical evidence gathered from controlled experiments to support her hypothesis.</t>
+  </si>
+  <si>
+    <t>engender</t>
+  </si>
+  <si>
+    <t>cause or give rise to (a feeling, situation, or condition).</t>
+  </si>
+  <si>
+    <t>The politician's divisive rhetoric only served to engender more hostility among the already polarized electorate.</t>
+  </si>
+  <si>
+    <t>entitled</t>
+  </si>
+  <si>
+    <t>believing oneself to be inherently deserving of privileges or special treatment.</t>
+  </si>
+  <si>
+    <t>He felt entitled to the promotion simply because he had been with the company longer than anyone else.</t>
+  </si>
+  <si>
+    <t>pertinacious</t>
+  </si>
+  <si>
+    <t>holding firmly to an opinion or a course of action.</t>
+  </si>
+  <si>
+    <t>Despite numerous setbacks, her pertinacious pursuit of the truth eventually led to a breakthrough in the case.</t>
+  </si>
+  <si>
+    <t>presumptuous</t>
+  </si>
+  <si>
+    <t>(of a person or their behaviour) failing to observe the limits of what is permitted or appropriate/overconfident</t>
+  </si>
+  <si>
+    <t>It was presumptuous of him to assume he would be invited to the private event without an invitation.</t>
+  </si>
+  <si>
+    <t>probity</t>
+  </si>
+  <si>
+    <t>the quality of having strong moral principles; honesty and decency.</t>
+  </si>
+  <si>
+    <t>The judge’s probity was never in question, as he consistently ruled with fairness and integrity.</t>
+  </si>
+  <si>
+    <t>proliferate</t>
+  </si>
+  <si>
+    <t>increase rapidly in number; multiply.</t>
+  </si>
+  <si>
+    <t>As technology advances, new innovations proliferate at a pace that is hard to keep up with.</t>
+  </si>
+  <si>
+    <t>specious</t>
+  </si>
+  <si>
+    <t>superficially plausible, but actually wrong.</t>
+  </si>
+  <si>
+    <t>The specious argument seemed convincing at first, but on closer inspection, it was full of logical flaws.</t>
+  </si>
+  <si>
+    <t>spurious</t>
+  </si>
+  <si>
+    <t>not being what it purports to be; false or fake.</t>
+  </si>
+  <si>
+    <t>The claim that the product could cure all diseases was quickly dismissed as spurious by medical experts.</t>
+  </si>
+  <si>
+    <t>subjective</t>
+  </si>
+  <si>
+    <t>based on or influenced by personal feelings, tastes, or opinions.</t>
+  </si>
+  <si>
+    <t>Art criticism can be highly subjective, as each viewer may have a different emotional response to a piece.</t>
+  </si>
+  <si>
+    <t>subvert</t>
+  </si>
+  <si>
+    <t>undermine the power and authority of (an established system or institution).</t>
+  </si>
+  <si>
+    <t>The rebel group sought to subvert the existing government by inciting mass protests across the country.</t>
+  </si>
+  <si>
+    <t>timorous</t>
+  </si>
+  <si>
+    <t>showing or suffering from nervousness or a lack of confidence.</t>
+  </si>
+  <si>
+    <t>The timorous child hesitated before stepping onto the stage, frightened by the large audience.</t>
+  </si>
+  <si>
+    <t>tortuous</t>
+  </si>
+  <si>
+    <t>1. full of twists and turns. 2. excessively lengthy and complex.</t>
+  </si>
+  <si>
+    <t>The tortuous mountain road was full of sharp curves, making the drive slow and dangerous.</t>
+  </si>
+  <si>
+    <t>tractable</t>
+  </si>
+  <si>
+    <t>easy to control or influence.</t>
+  </si>
+  <si>
+    <t>The young puppy was surprisingly tractable, quickly learning new commands and obeying its trainer.</t>
+  </si>
+  <si>
+    <t>transient</t>
+  </si>
+  <si>
+    <t>lasting only for a short time; impermanent.</t>
+  </si>
+  <si>
+    <t>The transient nature of summer storms means they pass quickly, but often leave significant damage in their wake.</t>
+  </si>
+  <si>
+    <t>ubiquitous</t>
+  </si>
+  <si>
+    <t>present, appearing, or found everywhere.</t>
+  </si>
+  <si>
+    <t>Smartphones have become so ubiquitous in modern society that it’s rare to see anyone without one.</t>
+  </si>
+  <si>
+    <t>underscore</t>
+  </si>
+  <si>
+    <t>emphasize.</t>
+  </si>
+  <si>
+    <t>The CEO’s speech underscored the importance of adapting to new technologies in order to stay competitive.</t>
+  </si>
+  <si>
+    <t>venal</t>
+  </si>
+  <si>
+    <t>showing or motivated by susceptibility to bribery; corrupt.</t>
+  </si>
+  <si>
+    <t>The venal politician accepted bribes from corporations in exchange for favorable legislation.</t>
+  </si>
+  <si>
+    <t>venerate</t>
+  </si>
+  <si>
+    <t>regard with great respect; revere.</t>
+  </si>
+  <si>
+    <t>The people venerate the saint, making pilgrimages to his shrine every year to pay their respects.</t>
+  </si>
+  <si>
+    <t>appease</t>
+  </si>
+  <si>
+    <t>1. pacify or placate (someone) by acceding to their demands. 2. assuage or satisfy (a demand or a feeling).</t>
+  </si>
+  <si>
+    <t>The government tried to appease the protesters by offering small concessions, but it was not enough to calm their anger.</t>
+  </si>
+  <si>
+    <t>arbitrary</t>
+  </si>
+  <si>
+    <t>1. based on random choice or personal whim, rather than any reason or system. 2. (of power or a ruling body) unrestrained and autocratic in the use of authority.</t>
+  </si>
+  <si>
+    <t>The manager's arbitrary decision to change the project deadline left the team scrambling to finish their work on time.</t>
+  </si>
+  <si>
+    <t>archaic</t>
+  </si>
+  <si>
+    <t>very old or old-fashioned.</t>
+  </si>
+  <si>
+    <t>The archaic language in the old legal documents made them difficult to understand for modern readers.</t>
+  </si>
+  <si>
+    <t>clamorous</t>
+  </si>
+  <si>
+    <t>1. making a loud and confused noise. 2. expressing or characterized by vehement protests or demands.</t>
+  </si>
+  <si>
+    <t>The clamorous crowd outside the stadium could be heard from several blocks away, cheering loudly for their team.</t>
+  </si>
+  <si>
+    <t>dearth</t>
+  </si>
+  <si>
+    <t>a scarcity or lack of something.</t>
+  </si>
+  <si>
+    <t>The dearth of affordable housing in the city has made it increasingly difficult for low-income families to find a place to live.</t>
+  </si>
+  <si>
+    <t>explicable</t>
+  </si>
+  <si>
+    <t>able to be accounted for or understood.</t>
+  </si>
+  <si>
+    <t>The sudden drop in sales was explicable once the company realized that a key competitor had launched a new product.</t>
+  </si>
+  <si>
+    <t>hyperbole</t>
+  </si>
+  <si>
+    <t>exaggerated statements or claims not meant to be taken literally.</t>
+  </si>
+  <si>
+    <t>His claim that he could finish the entire project in one day was clearly a hyperbole, as it required weeks of work.</t>
+  </si>
+  <si>
+    <t>immutable</t>
+  </si>
+  <si>
+    <t>unchanging over time or unable to be changed.</t>
+  </si>
+  <si>
+    <t>The scientist believed that the laws of physics were immutable, remaining constant throughout time and space.</t>
+  </si>
+  <si>
+    <t>indefatigable</t>
+  </si>
+  <si>
+    <t>(of a person or their efforts) persisting tirelessly.</t>
+  </si>
+  <si>
+    <t>Her indefatigable spirit kept her going through the long hours of research, even when others had given up.</t>
+  </si>
+  <si>
+    <t>indolent</t>
+  </si>
+  <si>
+    <t>1. wanting to avoid activity or exertion; lazy. 2. (of a disease or condition) causing little or no pain.</t>
+  </si>
+  <si>
+    <t>His indolent attitude toward work resulted in missed deadlines and poor performance reviews.</t>
+  </si>
+  <si>
+    <t>insular</t>
+  </si>
+  <si>
+    <t>ignorant of or uninterested in cultures, ideas, or peoples outside one's own experience.</t>
+  </si>
+  <si>
+    <t>Living in such an insular community, he had little exposure to different cultures or viewpoints.</t>
+  </si>
+  <si>
+    <t>intransigent</t>
+  </si>
+  <si>
+    <t>unwilling or refusing to change one's views or to agree about something.</t>
+  </si>
+  <si>
+    <t>The union's intransigent stance on the issue made it impossible to reach a compromise with the company.</t>
+  </si>
+  <si>
+    <t>intrepid</t>
+  </si>
+  <si>
+    <t>fearless; adventurous (often used for rhetorical or humorous effect).</t>
+  </si>
+  <si>
+    <t>The intrepid explorer ventured into the uncharted jungle, undeterred by the dangers that lay ahead.</t>
+  </si>
+  <si>
+    <t>irreverent</t>
+  </si>
+  <si>
+    <t>showing a lack of respect for people or things that are generally taken seriously.</t>
+  </si>
+  <si>
+    <t>His irreverent humor during the formal ceremony caught many by surprise, but it lightened the mood.</t>
+  </si>
+  <si>
+    <t>loathe</t>
+  </si>
+  <si>
+    <t>feel intense dislike or disgust for.</t>
+  </si>
+  <si>
+    <t>She loathed the idea of working with someone she didn’t trust, but she had no choice in the matter.</t>
+  </si>
+  <si>
+    <t>malign</t>
+  </si>
+  <si>
+    <t>1. evil in nature or effect. 2. speak about (someone) in a spitefully critical manner.</t>
+  </si>
+  <si>
+    <t>The politician's opponents sought to malign his reputation by spreading false rumors about his personal life.</t>
+  </si>
+  <si>
+    <t>malleable</t>
+  </si>
+  <si>
+    <t>easily influenced; pliable.</t>
+  </si>
+  <si>
+    <t>Gold is highly malleable, allowing it to be shaped into intricate designs without breaking.</t>
+  </si>
+  <si>
+    <t>neophyte</t>
+  </si>
+  <si>
+    <t>1. a person who is new to a subject or activity. 2. a new convert to a religion.</t>
+  </si>
+  <si>
+    <t>As a neophyte in the field of programming, she often sought guidance from more experienced colleagues.</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>1. not genuine; artificial or unnatural. 2. (of a substance or material) easily shaped or moulded.</t>
+  </si>
+  <si>
+    <t>Clay is a plastic material that can be molded into a variety of shapes before it hardens.</t>
+  </si>
+  <si>
+    <t>platitude</t>
+  </si>
+  <si>
+    <t>a remark or statement, especially one with a moral content, that has been used too often to be interesting or thoughtful.</t>
+  </si>
+  <si>
+    <t>The speech was filled with platitudes about teamwork and effort, but lacked any real substance or new ideas.</t>
+  </si>
+  <si>
+    <t>prescient</t>
+  </si>
+  <si>
+    <t>having or showing knowledge of events before they take place.</t>
+  </si>
+  <si>
+    <t>Her prescient remarks about the economy proved accurate, as the predicted downturn occurred just months later.</t>
+  </si>
+  <si>
+    <t>pristine</t>
+  </si>
+  <si>
+    <t>in its original condition; unspoilt.</t>
+  </si>
+  <si>
+    <t>The hikers were awed by the pristine beauty of the untouched wilderness around them.</t>
+  </si>
+  <si>
+    <t>reproach</t>
+  </si>
+  <si>
+    <t>express to (someone) one's disapproval of or disappointment in their actions.</t>
+  </si>
+  <si>
+    <t>His mother gave him a look of reproach after he failed to complete his chores.</t>
+  </si>
+  <si>
+    <t>robust</t>
+  </si>
+  <si>
+    <t>1. strong and healthy; vigorous.2. (of wine or food) strong and rich in flavour or smell.</t>
+  </si>
+  <si>
+    <t>The new software was robust enough to handle millions of users simultaneously without crashing.</t>
+  </si>
+  <si>
+    <t>salubrious</t>
+  </si>
+  <si>
+    <t>1. health-giving; healthy.2. (of a place) pleasant; not run-down.</t>
+  </si>
+  <si>
+    <t>The salubrious mountain air was just what she needed to recover from her illness.</t>
+  </si>
+  <si>
+    <t>sanction</t>
+  </si>
+  <si>
+    <t>1. a threatened penalty for disobeying a law or rule. 2. official permission or approval for an action.</t>
+  </si>
+  <si>
+    <t>The international community imposed economic sanctions on the country in response to its human rights violations.</t>
+  </si>
+  <si>
+    <t>sedulous</t>
+  </si>
+  <si>
+    <t>(of a person or action) showing dedication and diligence.</t>
+  </si>
+  <si>
+    <t>Her sedulous attention to detail ensured that the project was completed flawlessly and on time.</t>
+  </si>
+  <si>
+    <t>soporific</t>
+  </si>
+  <si>
+    <t>tending to induce drowsiness or sleep.</t>
+  </si>
+  <si>
+    <t>The lecture was so soporific that several students were struggling to stay awake by the end.</t>
+  </si>
+  <si>
+    <t>stern</t>
+  </si>
+  <si>
+    <t>stern(of a person or their manner) serious and unrelenting, especially in the assertion of authority and exercise of discipline.</t>
+  </si>
+  <si>
+    <t>The teacher’s stern warning to the class made it clear that no further disruptions would be tolerated.</t>
+  </si>
+  <si>
+    <t>tendentious</t>
+  </si>
+  <si>
+    <t>expressing or intending to promote a particular cause or point of view, especially a controversial one.</t>
+  </si>
+  <si>
+    <t>The tendentious article was clearly written to support the author's political views, without any attempt at objectivity.</t>
   </si>
 </sst>
 </file>
@@ -1178,9 +1988,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1530,18 +2346,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB46DAB-6DAD-47F2-BFB1-C20612ECF682}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="22.109375" customWidth="1"/>
     <col min="4" max="4" width="77.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="88.77734375" customWidth="1"/>
+    <col min="6" max="6" width="60.44140625" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3602,6 +4419,1536 @@
         <v>364</v>
       </c>
     </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D122" t="s">
+        <v>365</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D123" t="s">
+        <v>366</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D124" t="s">
+        <v>367</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D125" t="s">
+        <v>368</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D126" t="s">
+        <v>369</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D127" t="s">
+        <v>370</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D128" t="s">
+        <v>371</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D129" t="s">
+        <v>372</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D130" t="s">
+        <v>373</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D131" t="s">
+        <v>374</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D132" t="s">
+        <v>375</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>5</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D133" t="s">
+        <v>376</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>5</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D134" t="s">
+        <v>377</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D135" t="s">
+        <v>378</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>5</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D136" t="s">
+        <v>379</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>5</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D137" t="s">
+        <v>380</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>5</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D138" t="s">
+        <v>382</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D139" t="s">
+        <v>381</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>5</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D140" t="s">
+        <v>383</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>5</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D141" t="s">
+        <v>384</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>5</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D142" t="s">
+        <v>385</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>5</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D143" t="s">
+        <v>386</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>5</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D144" t="s">
+        <v>387</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>5</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D145" t="s">
+        <v>388</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>5</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D146" t="s">
+        <v>389</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>5</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D147" t="s">
+        <v>390</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>5</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D148" t="s">
+        <v>392</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>5</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D149" t="s">
+        <v>391</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>5</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D150" t="s">
+        <v>393</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>5</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D151" t="s">
+        <v>394</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>455</v>
+      </c>
+      <c r="D152" t="s">
+        <v>456</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>458</v>
+      </c>
+      <c r="D153" t="s">
+        <v>459</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>6</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>461</v>
+      </c>
+      <c r="D154" t="s">
+        <v>462</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>6</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>464</v>
+      </c>
+      <c r="D155" t="s">
+        <v>465</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>6</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>467</v>
+      </c>
+      <c r="D156" t="s">
+        <v>468</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>470</v>
+      </c>
+      <c r="D157" t="s">
+        <v>471</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>6</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>473</v>
+      </c>
+      <c r="D158" t="s">
+        <v>474</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>6</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>476</v>
+      </c>
+      <c r="D159" t="s">
+        <v>477</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>479</v>
+      </c>
+      <c r="D160" t="s">
+        <v>480</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>6</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>482</v>
+      </c>
+      <c r="D161" t="s">
+        <v>483</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>6</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
+        <v>485</v>
+      </c>
+      <c r="D162" t="s">
+        <v>486</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>6</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>488</v>
+      </c>
+      <c r="D163" t="s">
+        <v>489</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>6</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
+        <v>491</v>
+      </c>
+      <c r="D164" t="s">
+        <v>492</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>6</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>494</v>
+      </c>
+      <c r="D165" t="s">
+        <v>495</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>6</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166" t="s">
+        <v>497</v>
+      </c>
+      <c r="D166" t="s">
+        <v>498</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>6</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>500</v>
+      </c>
+      <c r="D167" t="s">
+        <v>501</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>6</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168" t="s">
+        <v>503</v>
+      </c>
+      <c r="D168" t="s">
+        <v>504</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>6</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169" t="s">
+        <v>506</v>
+      </c>
+      <c r="D169" t="s">
+        <v>507</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>6</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>509</v>
+      </c>
+      <c r="D170" t="s">
+        <v>510</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>6</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>512</v>
+      </c>
+      <c r="D171" t="s">
+        <v>513</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>6</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172" t="s">
+        <v>515</v>
+      </c>
+      <c r="D172" t="s">
+        <v>516</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>6</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>518</v>
+      </c>
+      <c r="D173" t="s">
+        <v>519</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>6</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>521</v>
+      </c>
+      <c r="D174" t="s">
+        <v>522</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>6</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>524</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176" t="s">
+        <v>527</v>
+      </c>
+      <c r="D176" t="s">
+        <v>528</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>6</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177" t="s">
+        <v>530</v>
+      </c>
+      <c r="D177" t="s">
+        <v>531</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>6</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178" t="s">
+        <v>533</v>
+      </c>
+      <c r="D178" t="s">
+        <v>534</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>6</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179" t="s">
+        <v>536</v>
+      </c>
+      <c r="D179" t="s">
+        <v>537</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>6</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180" t="s">
+        <v>539</v>
+      </c>
+      <c r="D180" t="s">
+        <v>540</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>6</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181" t="s">
+        <v>542</v>
+      </c>
+      <c r="D181" t="s">
+        <v>543</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>6</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182" t="s">
+        <v>545</v>
+      </c>
+      <c r="D182" t="s">
+        <v>546</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>6</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183" t="s">
+        <v>548</v>
+      </c>
+      <c r="D183" t="s">
+        <v>549</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>6</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184" t="s">
+        <v>551</v>
+      </c>
+      <c r="D184" t="s">
+        <v>552</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>6</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185" t="s">
+        <v>554</v>
+      </c>
+      <c r="D185" t="s">
+        <v>555</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>6</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186" t="s">
+        <v>557</v>
+      </c>
+      <c r="D186" t="s">
+        <v>558</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>6</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187" t="s">
+        <v>560</v>
+      </c>
+      <c r="D187" t="s">
+        <v>561</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>6</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188" t="s">
+        <v>563</v>
+      </c>
+      <c r="D188" t="s">
+        <v>564</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>6</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189" t="s">
+        <v>566</v>
+      </c>
+      <c r="D189" t="s">
+        <v>567</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>6</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190" t="s">
+        <v>569</v>
+      </c>
+      <c r="D190" t="s">
+        <v>570</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>6</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191" t="s">
+        <v>572</v>
+      </c>
+      <c r="D191" t="s">
+        <v>573</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>6</v>
+      </c>
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192" t="s">
+        <v>575</v>
+      </c>
+      <c r="D192" t="s">
+        <v>576</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>6</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+      <c r="C193" t="s">
+        <v>578</v>
+      </c>
+      <c r="D193" t="s">
+        <v>579</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>6</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194" t="s">
+        <v>581</v>
+      </c>
+      <c r="D194" t="s">
+        <v>582</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>6</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+      <c r="C195" t="s">
+        <v>584</v>
+      </c>
+      <c r="D195" t="s">
+        <v>585</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>6</v>
+      </c>
+      <c r="B196">
+        <v>195</v>
+      </c>
+      <c r="C196" t="s">
+        <v>587</v>
+      </c>
+      <c r="D196" t="s">
+        <v>588</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>6</v>
+      </c>
+      <c r="B197">
+        <v>196</v>
+      </c>
+      <c r="C197" t="s">
+        <v>590</v>
+      </c>
+      <c r="D197" t="s">
+        <v>591</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>6</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+      <c r="C198" t="s">
+        <v>593</v>
+      </c>
+      <c r="D198" t="s">
+        <v>594</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>6</v>
+      </c>
+      <c r="B199">
+        <v>198</v>
+      </c>
+      <c r="C199" t="s">
+        <v>596</v>
+      </c>
+      <c r="D199" t="s">
+        <v>597</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>6</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+      <c r="C200" t="s">
+        <v>599</v>
+      </c>
+      <c r="D200" t="s">
+        <v>600</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>6</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+      <c r="C201" t="s">
+        <v>602</v>
+      </c>
+      <c r="D201" t="s">
+        <v>603</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>6</v>
+      </c>
+      <c r="B202">
+        <v>201</v>
+      </c>
+      <c r="C202" t="s">
+        <v>605</v>
+      </c>
+      <c r="D202" t="s">
+        <v>606</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>6</v>
+      </c>
+      <c r="B203">
+        <v>202</v>
+      </c>
+      <c r="C203" t="s">
+        <v>608</v>
+      </c>
+      <c r="D203" t="s">
+        <v>609</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>6</v>
+      </c>
+      <c r="B204">
+        <v>203</v>
+      </c>
+      <c r="C204" t="s">
+        <v>611</v>
+      </c>
+      <c r="D204" t="s">
+        <v>612</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>6</v>
+      </c>
+      <c r="B205">
+        <v>204</v>
+      </c>
+      <c r="C205" t="s">
+        <v>614</v>
+      </c>
+      <c r="D205" t="s">
+        <v>615</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>6</v>
+      </c>
+      <c r="B206">
+        <v>205</v>
+      </c>
+      <c r="C206" t="s">
+        <v>617</v>
+      </c>
+      <c r="D206" t="s">
+        <v>618</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>6</v>
+      </c>
+      <c r="B207">
+        <v>206</v>
+      </c>
+      <c r="C207" t="s">
+        <v>620</v>
+      </c>
+      <c r="D207" t="s">
+        <v>621</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>6</v>
+      </c>
+      <c r="B208">
+        <v>207</v>
+      </c>
+      <c r="C208" t="s">
+        <v>623</v>
+      </c>
+      <c r="D208" t="s">
+        <v>624</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>6</v>
+      </c>
+      <c r="B209">
+        <v>208</v>
+      </c>
+      <c r="C209" t="s">
+        <v>626</v>
+      </c>
+      <c r="D209" t="s">
+        <v>627</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>6</v>
+      </c>
+      <c r="B210">
+        <v>209</v>
+      </c>
+      <c r="C210" t="s">
+        <v>629</v>
+      </c>
+      <c r="D210" t="s">
+        <v>630</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>6</v>
+      </c>
+      <c r="B211">
+        <v>210</v>
+      </c>
+      <c r="C211" t="s">
+        <v>632</v>
+      </c>
+      <c r="D211" t="s">
+        <v>633</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E91" xr:uid="{6EB46DAB-6DAD-47F2-BFB1-C20612ECF682}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GRE\gregmat-gre-words-all-master\GREGMAT_STREAMLIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShivaKumarVH\Downloads\gre_words_app_streamlit-main\gre_words_app_streamlit-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D561C8FB-6490-4849-9026-5725ABB53332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D03FE-C160-45D1-87C8-86D55C72FA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B5DE0D44-D54A-486B-A645-FB03FF95277D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B5DE0D44-D54A-486B-A645-FB03FF95277D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$241</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="725">
   <si>
     <t>words</t>
   </si>
@@ -1945,6 +1945,276 @@
   </si>
   <si>
     <t>The tendentious article was clearly written to support the author's political views, without any attempt at objectivity.</t>
+  </si>
+  <si>
+    <t>accentuate</t>
+  </si>
+  <si>
+    <t>make more noticeable or prominent.</t>
+  </si>
+  <si>
+    <t>conjectural</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> theory without sufficient evidence for proof</t>
+  </si>
+  <si>
+    <t>convivial</t>
+  </si>
+  <si>
+    <t>friendly, lively, and enjoyable.</t>
+  </si>
+  <si>
+    <t>characterized by or reflecting a state of moral or cultural decline.</t>
+  </si>
+  <si>
+    <t>decadent</t>
+  </si>
+  <si>
+    <t>egregious</t>
+  </si>
+  <si>
+    <t>outstandingly bad; shocking.</t>
+  </si>
+  <si>
+    <t>evanescent</t>
+  </si>
+  <si>
+    <t>soon passing out of sight, memory, or existence; quickly fading or disappearing.</t>
+  </si>
+  <si>
+    <t>flamboyant</t>
+  </si>
+  <si>
+    <t>tending to attract attention because of their exuberance, confidence, and stylishness.</t>
+  </si>
+  <si>
+    <t>forestall</t>
+  </si>
+  <si>
+    <t>prevent or obstruct (an anticipated event or action) by taking advance action.</t>
+  </si>
+  <si>
+    <t>gainsay</t>
+  </si>
+  <si>
+    <t>deny or contradict (a fact or statement).</t>
+  </si>
+  <si>
+    <t>galvanize</t>
+  </si>
+  <si>
+    <t>shock or excite (someone) into taking action.</t>
+  </si>
+  <si>
+    <t>indiscriminate</t>
+  </si>
+  <si>
+    <t>done at random or without careful judgement.</t>
+  </si>
+  <si>
+    <t>innocuous</t>
+  </si>
+  <si>
+    <t>not harmful or offensive.</t>
+  </si>
+  <si>
+    <t>momentary</t>
+  </si>
+  <si>
+    <t>lasting for a very short time; brief.</t>
+  </si>
+  <si>
+    <t>mundane</t>
+  </si>
+  <si>
+    <t>lacking interest or excitement; dull.</t>
+  </si>
+  <si>
+    <t>nettlesome</t>
+  </si>
+  <si>
+    <t>causing annoyance or difficulty.</t>
+  </si>
+  <si>
+    <t>nullify</t>
+  </si>
+  <si>
+    <t>make legally null and void; invalidate.</t>
+  </si>
+  <si>
+    <t>obviate</t>
+  </si>
+  <si>
+    <t>remove (a need or difficulty) or avoid or prevent (something undesirable).</t>
+  </si>
+  <si>
+    <t>omnipresent</t>
+  </si>
+  <si>
+    <t>widely or constantly encountered; widespread.</t>
+  </si>
+  <si>
+    <t>oust</t>
+  </si>
+  <si>
+    <t>drive out or expel (someone) from a position or place.</t>
+  </si>
+  <si>
+    <t>palpable</t>
+  </si>
+  <si>
+    <t>so intense as to seem almost tangible. OR able to be touched or felt.</t>
+  </si>
+  <si>
+    <t>perfidy</t>
+  </si>
+  <si>
+    <t>he state of being deceitful and untrustworthy.</t>
+  </si>
+  <si>
+    <t>profuse</t>
+  </si>
+  <si>
+    <t>(especially of something offered or discharged) very plentiful; abundant.</t>
+  </si>
+  <si>
+    <t>pugnacious</t>
+  </si>
+  <si>
+    <t>eager or quick to argue, quarrel, or fight.</t>
+  </si>
+  <si>
+    <t>sagacious</t>
+  </si>
+  <si>
+    <t>having or showing keen mental discernment and good judgement; wise or shrewd.</t>
+  </si>
+  <si>
+    <t>sanguine</t>
+  </si>
+  <si>
+    <t>optimistic or positive, especially in an apparently bad or difficult situation.</t>
+  </si>
+  <si>
+    <t>scant</t>
+  </si>
+  <si>
+    <t>barely sufficient or adequate.</t>
+  </si>
+  <si>
+    <t>skulduggery</t>
+  </si>
+  <si>
+    <t>underhand, unscrupulous, or dishonest behaviour or activities.</t>
+  </si>
+  <si>
+    <t>trivial</t>
+  </si>
+  <si>
+    <t>of little value or importance.</t>
+  </si>
+  <si>
+    <t>utilitarian</t>
+  </si>
+  <si>
+    <t>designed to be useful or practical rather than attractive.</t>
+  </si>
+  <si>
+    <t>offering nothing that is stimulating or challenging; bland.</t>
+  </si>
+  <si>
+    <t>vapid</t>
+  </si>
+  <si>
+    <t>The artist used bright colors to accentuate the focal point of the painting, drawing the viewer's eye immediately.</t>
+  </si>
+  <si>
+    <t>The theory remains conjectural, as there is no concrete evidence to support the proposed explanation.</t>
+  </si>
+  <si>
+    <t>The convivial atmosphere at the party made everyone feel welcome and eager to join in the celebration.</t>
+  </si>
+  <si>
+    <t>The decadent chocolate cake, with its rich layers of ganache and truffle filling, was a guilty pleasure for all who tried it.</t>
+  </si>
+  <si>
+    <t>The company's egregious disregard for safety standards led to a massive public outcry after the accident.</t>
+  </si>
+  <si>
+    <t>The beauty of the sunset was evanescent, fading quickly as night descended over the horizon.</t>
+  </si>
+  <si>
+    <t>His flamboyant style of dressing, with bright colors and dramatic patterns, always made him the center of attention.</t>
+  </si>
+  <si>
+    <t>The government implemented strict measures to forestall a potential economic crisis.</t>
+  </si>
+  <si>
+    <t>It was hard to gainsay her argument, as she presented well-researched evidence to support every point.</t>
+  </si>
+  <si>
+    <t>The leader’s passionate speech managed to galvanize the crowd into action, sparking a movement for change.</t>
+  </si>
+  <si>
+    <t>The indiscriminate use of pesticides has caused significant harm to the environment and non-target species.</t>
+  </si>
+  <si>
+    <t>Although his comment was meant to be innocuous, it unintentionally offended several people in the audience.</t>
+  </si>
+  <si>
+    <t>The loud crash caused a momentary pause in the conversation before everyone resumed speaking.</t>
+  </si>
+  <si>
+    <t>After months of travel and adventure, she found it hard to return to her mundane routine of office work.</t>
+  </si>
+  <si>
+    <t>The nettlesome paperwork delayed the approval process by several weeks, frustrating everyone involved.</t>
+  </si>
+  <si>
+    <t>The court’s decision to nullify the contract left both parties scrambling to renegotiate terms.</t>
+  </si>
+  <si>
+    <t>Installing a backup power generator will obviate the risk of data loss during power outages.</t>
+  </si>
+  <si>
+    <t>In today’s digital age, advertisements seem omnipresent, appearing on every website and app.</t>
+  </si>
+  <si>
+    <t>The board of directors decided to oust the CEO after multiple scandals tarnished the company’s reputation.</t>
+  </si>
+  <si>
+    <t>The tension in the room was palpable as everyone waited for the results to be announced.</t>
+  </si>
+  <si>
+    <t>His perfidy was revealed when it was discovered that he had been leaking confidential information to the competitors.</t>
+  </si>
+  <si>
+    <t>After the accident, she apologized profusely for her mistake, ensuring everyone knew she regretted it deeply.</t>
+  </si>
+  <si>
+    <t>The pugnacious reporter was always eager to challenge politicians during press conferences.</t>
+  </si>
+  <si>
+    <t>The sagacious leader anticipated the economic downturn and implemented policies to cushion its effects.</t>
+  </si>
+  <si>
+    <t>Despite the challenges ahead, she remained sanguine about the success of her new venture.</t>
+  </si>
+  <si>
+    <t>The scant evidence presented during the trial was not enough to convince the jury of the defendant’s guilt.</t>
+  </si>
+  <si>
+    <t>The politician’s career ended abruptly when allegations of financial skulduggery surfaced in the media.</t>
+  </si>
+  <si>
+    <t>The team spent too much time debating trivial details, delaying progress on the larger project.</t>
+  </si>
+  <si>
+    <t>The building's utilitarian design prioritized functionality over aesthetics, resulting in a plain exterior.</t>
+  </si>
+  <si>
+    <t>The conversation at the meeting was so vapid that many attendees struggled to stay engaged.</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2607,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2346,23 +2616,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB46DAB-6DAD-47F2-BFB1-C20612ECF682}">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="77.33203125" customWidth="1"/>
-    <col min="5" max="5" width="88.77734375" customWidth="1"/>
-    <col min="6" max="6" width="60.44140625" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="77.36328125" customWidth="1"/>
+    <col min="5" max="5" width="88.81640625" customWidth="1"/>
+    <col min="6" max="6" width="60.453125" customWidth="1"/>
+    <col min="14" max="14" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>184</v>
       </c>
@@ -2379,7 +2649,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2396,7 +2666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2413,7 +2683,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2430,7 +2700,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2447,7 +2717,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2464,7 +2734,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2481,7 +2751,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2498,7 +2768,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2515,7 +2785,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2532,7 +2802,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2549,7 +2819,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2566,7 +2836,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2583,7 +2853,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2600,7 +2870,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2617,7 +2887,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2634,7 +2904,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2651,7 +2921,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2668,7 +2938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2685,7 +2955,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2702,7 +2972,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2719,7 +2989,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2736,7 +3006,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2753,7 +3023,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2770,7 +3040,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2787,7 +3057,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2804,7 +3074,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2821,7 +3091,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2838,7 +3108,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2855,7 +3125,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2872,7 +3142,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2889,7 +3159,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2906,7 +3176,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2923,7 +3193,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2940,7 +3210,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2957,7 +3227,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2</v>
       </c>
@@ -2974,7 +3244,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2991,7 +3261,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3008,7 +3278,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3025,7 +3295,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3042,7 +3312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3059,7 +3329,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2</v>
       </c>
@@ -3076,7 +3346,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3093,7 +3363,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3110,7 +3380,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3127,7 +3397,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2</v>
       </c>
@@ -3144,7 +3414,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3161,7 +3431,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2</v>
       </c>
@@ -3178,7 +3448,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2</v>
       </c>
@@ -3195,7 +3465,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2</v>
       </c>
@@ -3212,7 +3482,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2</v>
       </c>
@@ -3229,7 +3499,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2</v>
       </c>
@@ -3246,7 +3516,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2</v>
       </c>
@@ -3263,7 +3533,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3280,7 +3550,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3297,7 +3567,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2</v>
       </c>
@@ -3314,7 +3584,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2</v>
       </c>
@@ -3331,7 +3601,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2</v>
       </c>
@@ -3348,7 +3618,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3365,7 +3635,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3382,7 +3652,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3399,7 +3669,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3416,7 +3686,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3433,7 +3703,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3450,7 +3720,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>3</v>
       </c>
@@ -3467,7 +3737,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>3</v>
       </c>
@@ -3484,7 +3754,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3501,7 +3771,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3518,7 +3788,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>3</v>
       </c>
@@ -3535,7 +3805,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>3</v>
       </c>
@@ -3552,7 +3822,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>3</v>
       </c>
@@ -3569,7 +3839,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3586,7 +3856,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3603,7 +3873,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3620,7 +3890,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3637,7 +3907,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3654,7 +3924,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3671,7 +3941,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3688,7 +3958,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3705,7 +3975,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3722,7 +3992,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3739,7 +4009,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3756,7 +4026,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3773,7 +4043,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>3</v>
       </c>
@@ -3790,7 +4060,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3807,7 +4077,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>3</v>
       </c>
@@ -3824,7 +4094,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>3</v>
       </c>
@@ -3841,7 +4111,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>3</v>
       </c>
@@ -3858,7 +4128,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>3</v>
       </c>
@@ -3875,7 +4145,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>3</v>
       </c>
@@ -3892,7 +4162,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>3</v>
       </c>
@@ -3909,7 +4179,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>4</v>
       </c>
@@ -3926,7 +4196,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>4</v>
       </c>
@@ -3943,7 +4213,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>4</v>
       </c>
@@ -3960,7 +4230,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>4</v>
       </c>
@@ -3977,7 +4247,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>4</v>
       </c>
@@ -3994,7 +4264,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>4</v>
       </c>
@@ -4011,7 +4281,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>4</v>
       </c>
@@ -4028,7 +4298,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>4</v>
       </c>
@@ -4045,7 +4315,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>4</v>
       </c>
@@ -4062,7 +4332,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>4</v>
       </c>
@@ -4079,7 +4349,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>4</v>
       </c>
@@ -4096,7 +4366,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>4</v>
       </c>
@@ -4113,7 +4383,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>4</v>
       </c>
@@ -4130,7 +4400,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>4</v>
       </c>
@@ -4147,7 +4417,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>4</v>
       </c>
@@ -4164,7 +4434,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>4</v>
       </c>
@@ -4181,7 +4451,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>4</v>
       </c>
@@ -4198,7 +4468,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>4</v>
       </c>
@@ -4215,7 +4485,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>4</v>
       </c>
@@ -4232,7 +4502,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>4</v>
       </c>
@@ -4249,7 +4519,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>4</v>
       </c>
@@ -4266,7 +4536,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>4</v>
       </c>
@@ -4283,7 +4553,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>4</v>
       </c>
@@ -4300,7 +4570,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>4</v>
       </c>
@@ -4317,7 +4587,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>4</v>
       </c>
@@ -4334,7 +4604,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>4</v>
       </c>
@@ -4351,7 +4621,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>4</v>
       </c>
@@ -4368,7 +4638,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>4</v>
       </c>
@@ -4385,7 +4655,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>4</v>
       </c>
@@ -4402,7 +4672,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>4</v>
       </c>
@@ -4419,7 +4689,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>5</v>
       </c>
@@ -4436,7 +4706,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>5</v>
       </c>
@@ -4453,7 +4723,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>5</v>
       </c>
@@ -4470,7 +4740,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>5</v>
       </c>
@@ -4487,7 +4757,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>5</v>
       </c>
@@ -4504,7 +4774,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>5</v>
       </c>
@@ -4521,7 +4791,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>5</v>
       </c>
@@ -4538,7 +4808,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>5</v>
       </c>
@@ -4555,7 +4825,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>5</v>
       </c>
@@ -4572,7 +4842,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>5</v>
       </c>
@@ -4589,7 +4859,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>5</v>
       </c>
@@ -4606,7 +4876,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>5</v>
       </c>
@@ -4623,7 +4893,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>5</v>
       </c>
@@ -4640,7 +4910,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>5</v>
       </c>
@@ -4657,7 +4927,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>5</v>
       </c>
@@ -4674,7 +4944,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>5</v>
       </c>
@@ -4691,7 +4961,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>5</v>
       </c>
@@ -4708,7 +4978,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>5</v>
       </c>
@@ -4725,7 +4995,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>5</v>
       </c>
@@ -4742,7 +5012,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>5</v>
       </c>
@@ -4759,7 +5029,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>5</v>
       </c>
@@ -4776,7 +5046,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>5</v>
       </c>
@@ -4793,7 +5063,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>5</v>
       </c>
@@ -4810,7 +5080,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>5</v>
       </c>
@@ -4827,7 +5097,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>5</v>
       </c>
@@ -4844,7 +5114,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>5</v>
       </c>
@@ -4861,7 +5131,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>5</v>
       </c>
@@ -4878,7 +5148,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>5</v>
       </c>
@@ -4895,7 +5165,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>5</v>
       </c>
@@ -4912,7 +5182,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>5</v>
       </c>
@@ -4929,7 +5199,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>6</v>
       </c>
@@ -4946,7 +5216,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>6</v>
       </c>
@@ -4963,7 +5233,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>6</v>
       </c>
@@ -4980,7 +5250,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>6</v>
       </c>
@@ -4997,7 +5267,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>6</v>
       </c>
@@ -5014,7 +5284,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>6</v>
       </c>
@@ -5031,7 +5301,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>6</v>
       </c>
@@ -5048,7 +5318,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>6</v>
       </c>
@@ -5065,7 +5335,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>6</v>
       </c>
@@ -5082,7 +5352,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>6</v>
       </c>
@@ -5099,7 +5369,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>6</v>
       </c>
@@ -5116,7 +5386,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>6</v>
       </c>
@@ -5133,7 +5403,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>6</v>
       </c>
@@ -5150,7 +5420,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>6</v>
       </c>
@@ -5167,7 +5437,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>6</v>
       </c>
@@ -5184,7 +5454,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>6</v>
       </c>
@@ -5201,7 +5471,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>6</v>
       </c>
@@ -5218,7 +5488,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>6</v>
       </c>
@@ -5235,7 +5505,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>6</v>
       </c>
@@ -5252,7 +5522,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>6</v>
       </c>
@@ -5269,7 +5539,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>6</v>
       </c>
@@ -5286,7 +5556,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>6</v>
       </c>
@@ -5303,7 +5573,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>6</v>
       </c>
@@ -5320,7 +5590,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>6</v>
       </c>
@@ -5337,7 +5607,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>6</v>
       </c>
@@ -5354,7 +5624,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>6</v>
       </c>
@@ -5371,7 +5641,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>6</v>
       </c>
@@ -5388,7 +5658,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>6</v>
       </c>
@@ -5405,7 +5675,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>6</v>
       </c>
@@ -5422,7 +5692,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>6</v>
       </c>
@@ -5439,7 +5709,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>6</v>
       </c>
@@ -5456,7 +5726,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>6</v>
       </c>
@@ -5473,7 +5743,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>6</v>
       </c>
@@ -5490,7 +5760,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>6</v>
       </c>
@@ -5507,7 +5777,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>6</v>
       </c>
@@ -5524,7 +5794,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>6</v>
       </c>
@@ -5541,7 +5811,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>6</v>
       </c>
@@ -5558,7 +5828,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>6</v>
       </c>
@@ -5575,7 +5845,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>6</v>
       </c>
@@ -5592,7 +5862,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>6</v>
       </c>
@@ -5609,7 +5879,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>6</v>
       </c>
@@ -5626,7 +5896,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>6</v>
       </c>
@@ -5643,7 +5913,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>6</v>
       </c>
@@ -5660,7 +5930,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>6</v>
       </c>
@@ -5677,7 +5947,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>6</v>
       </c>
@@ -5694,7 +5964,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>6</v>
       </c>
@@ -5711,7 +5981,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>6</v>
       </c>
@@ -5728,7 +5998,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>6</v>
       </c>
@@ -5745,7 +6015,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>6</v>
       </c>
@@ -5762,7 +6032,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>6</v>
       </c>
@@ -5779,7 +6049,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>6</v>
       </c>
@@ -5796,7 +6066,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>6</v>
       </c>
@@ -5813,7 +6083,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>6</v>
       </c>
@@ -5830,7 +6100,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>6</v>
       </c>
@@ -5847,7 +6117,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>6</v>
       </c>
@@ -5864,7 +6134,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>6</v>
       </c>
@@ -5881,7 +6151,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>6</v>
       </c>
@@ -5898,7 +6168,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>6</v>
       </c>
@@ -5915,7 +6185,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>6</v>
       </c>
@@ -5932,7 +6202,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>6</v>
       </c>
@@ -5949,8 +6219,518 @@
         <v>634</v>
       </c>
     </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>7</v>
+      </c>
+      <c r="B212">
+        <v>211</v>
+      </c>
+      <c r="C212" t="s">
+        <v>635</v>
+      </c>
+      <c r="D212" t="s">
+        <v>636</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>7</v>
+      </c>
+      <c r="B213">
+        <v>212</v>
+      </c>
+      <c r="C213" t="s">
+        <v>637</v>
+      </c>
+      <c r="D213" t="s">
+        <v>638</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>7</v>
+      </c>
+      <c r="B214">
+        <v>213</v>
+      </c>
+      <c r="C214" t="s">
+        <v>639</v>
+      </c>
+      <c r="D214" t="s">
+        <v>640</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>7</v>
+      </c>
+      <c r="B215">
+        <v>214</v>
+      </c>
+      <c r="C215" t="s">
+        <v>642</v>
+      </c>
+      <c r="D215" t="s">
+        <v>641</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>7</v>
+      </c>
+      <c r="B216">
+        <v>215</v>
+      </c>
+      <c r="C216" t="s">
+        <v>643</v>
+      </c>
+      <c r="D216" t="s">
+        <v>644</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>7</v>
+      </c>
+      <c r="B217">
+        <v>216</v>
+      </c>
+      <c r="C217" t="s">
+        <v>645</v>
+      </c>
+      <c r="D217" t="s">
+        <v>646</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>7</v>
+      </c>
+      <c r="B218">
+        <v>217</v>
+      </c>
+      <c r="C218" t="s">
+        <v>647</v>
+      </c>
+      <c r="D218" t="s">
+        <v>648</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>7</v>
+      </c>
+      <c r="B219">
+        <v>218</v>
+      </c>
+      <c r="C219" t="s">
+        <v>649</v>
+      </c>
+      <c r="D219" t="s">
+        <v>650</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>7</v>
+      </c>
+      <c r="B220">
+        <v>219</v>
+      </c>
+      <c r="C220" t="s">
+        <v>651</v>
+      </c>
+      <c r="D220" t="s">
+        <v>652</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>7</v>
+      </c>
+      <c r="B221">
+        <v>220</v>
+      </c>
+      <c r="C221" t="s">
+        <v>653</v>
+      </c>
+      <c r="D221" t="s">
+        <v>654</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>7</v>
+      </c>
+      <c r="B222">
+        <v>221</v>
+      </c>
+      <c r="C222" t="s">
+        <v>655</v>
+      </c>
+      <c r="D222" t="s">
+        <v>656</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>7</v>
+      </c>
+      <c r="B223">
+        <v>222</v>
+      </c>
+      <c r="C223" t="s">
+        <v>657</v>
+      </c>
+      <c r="D223" t="s">
+        <v>658</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>7</v>
+      </c>
+      <c r="B224">
+        <v>223</v>
+      </c>
+      <c r="C224" t="s">
+        <v>659</v>
+      </c>
+      <c r="D224" t="s">
+        <v>660</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>7</v>
+      </c>
+      <c r="B225">
+        <v>224</v>
+      </c>
+      <c r="C225" t="s">
+        <v>661</v>
+      </c>
+      <c r="D225" t="s">
+        <v>662</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>7</v>
+      </c>
+      <c r="B226">
+        <v>225</v>
+      </c>
+      <c r="C226" t="s">
+        <v>663</v>
+      </c>
+      <c r="D226" t="s">
+        <v>664</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>7</v>
+      </c>
+      <c r="B227">
+        <v>226</v>
+      </c>
+      <c r="C227" t="s">
+        <v>665</v>
+      </c>
+      <c r="D227" t="s">
+        <v>666</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>7</v>
+      </c>
+      <c r="B228">
+        <v>227</v>
+      </c>
+      <c r="C228" t="s">
+        <v>667</v>
+      </c>
+      <c r="D228" t="s">
+        <v>668</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>7</v>
+      </c>
+      <c r="B229">
+        <v>228</v>
+      </c>
+      <c r="C229" t="s">
+        <v>669</v>
+      </c>
+      <c r="D229" t="s">
+        <v>670</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>7</v>
+      </c>
+      <c r="B230">
+        <v>229</v>
+      </c>
+      <c r="C230" t="s">
+        <v>671</v>
+      </c>
+      <c r="D230" t="s">
+        <v>672</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>7</v>
+      </c>
+      <c r="B231">
+        <v>230</v>
+      </c>
+      <c r="C231" t="s">
+        <v>673</v>
+      </c>
+      <c r="D231" t="s">
+        <v>674</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>7</v>
+      </c>
+      <c r="B232">
+        <v>231</v>
+      </c>
+      <c r="C232" t="s">
+        <v>675</v>
+      </c>
+      <c r="D232" t="s">
+        <v>676</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>7</v>
+      </c>
+      <c r="B233">
+        <v>232</v>
+      </c>
+      <c r="C233" t="s">
+        <v>677</v>
+      </c>
+      <c r="D233" t="s">
+        <v>678</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>7</v>
+      </c>
+      <c r="B234">
+        <v>233</v>
+      </c>
+      <c r="C234" t="s">
+        <v>679</v>
+      </c>
+      <c r="D234" t="s">
+        <v>680</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>7</v>
+      </c>
+      <c r="B235">
+        <v>234</v>
+      </c>
+      <c r="C235" t="s">
+        <v>681</v>
+      </c>
+      <c r="D235" t="s">
+        <v>682</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>7</v>
+      </c>
+      <c r="B236">
+        <v>235</v>
+      </c>
+      <c r="C236" t="s">
+        <v>683</v>
+      </c>
+      <c r="D236" t="s">
+        <v>684</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>7</v>
+      </c>
+      <c r="B237">
+        <v>236</v>
+      </c>
+      <c r="C237" t="s">
+        <v>685</v>
+      </c>
+      <c r="D237" t="s">
+        <v>686</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>7</v>
+      </c>
+      <c r="B238">
+        <v>237</v>
+      </c>
+      <c r="C238" t="s">
+        <v>687</v>
+      </c>
+      <c r="D238" t="s">
+        <v>688</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>7</v>
+      </c>
+      <c r="B239">
+        <v>238</v>
+      </c>
+      <c r="C239" t="s">
+        <v>689</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>7</v>
+      </c>
+      <c r="B240">
+        <v>239</v>
+      </c>
+      <c r="C240" t="s">
+        <v>691</v>
+      </c>
+      <c r="D240" t="s">
+        <v>692</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>7</v>
+      </c>
+      <c r="B241">
+        <v>240</v>
+      </c>
+      <c r="C241" t="s">
+        <v>694</v>
+      </c>
+      <c r="D241" t="s">
+        <v>693</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E91" xr:uid="{6EB46DAB-6DAD-47F2-BFB1-C20612ECF682}"/>
+  <autoFilter ref="A1:E241" xr:uid="{6EB46DAB-6DAD-47F2-BFB1-C20612ECF682}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShivaKumarVH\Downloads\gre_words_app_streamlit-main\gre_words_app_streamlit-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D03FE-C160-45D1-87C8-86D55C72FA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7626D946-8545-411A-9F9E-51D64372B359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B5DE0D44-D54A-486B-A645-FB03FF95277D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$301</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="995">
   <si>
     <t>words</t>
   </si>
@@ -2215,6 +2215,816 @@
   </si>
   <si>
     <t>The conversation at the meeting was so vapid that many attendees struggled to stay engaged.</t>
+  </si>
+  <si>
+    <t>rude or unrefined in manners or behavior</t>
+  </si>
+  <si>
+    <t>to tolerate or endure something, especially an annoyance</t>
+  </si>
+  <si>
+    <t>cautious or wary, especially when considering potential consequences</t>
+  </si>
+  <si>
+    <t>a courteous harmony or mutual respect toward others</t>
+  </si>
+  <si>
+    <t>comparable in size, extent, or degree; proportionate</t>
+  </si>
+  <si>
+    <t>characterized by warmth and sincerity</t>
+  </si>
+  <si>
+    <t>having a harmful effect</t>
+  </si>
+  <si>
+    <t>a split into two contrasting or opposite parts</t>
+  </si>
+  <si>
+    <t>enlighten or uplift through knowledge; teach</t>
+  </si>
+  <si>
+    <t>extract a reply or action; provoke</t>
+  </si>
+  <si>
+    <t>possessing great knowledge, typically from study or research</t>
+  </si>
+  <si>
+    <t>fertile or highly productive</t>
+  </si>
+  <si>
+    <t>weak; deficient in strength</t>
+  </si>
+  <si>
+    <t>well-suited or apt</t>
+  </si>
+  <si>
+    <t>refrain or abstain from doing something</t>
+  </si>
+  <si>
+    <t>lacking clear planning, order, or direction</t>
+  </si>
+  <si>
+    <t>a mixture or assortment of different things</t>
+  </si>
+  <si>
+    <t>obstruct or hinder progress</t>
+  </si>
+  <si>
+    <t>rash or hasty in action or decision</t>
+  </si>
+  <si>
+    <t>easily angered or irritated</t>
+  </si>
+  <si>
+    <t>motivated primarily by a desire for monetary or material gain</t>
+  </si>
+  <si>
+    <t>exhibiting great care to detail</t>
+  </si>
+  <si>
+    <t>biting or sharply critical in thought or expression</t>
+  </si>
+  <si>
+    <t>surpass or do better than</t>
+  </si>
+  <si>
+    <t>uncertain and likely to cause danger</t>
+  </si>
+  <si>
+    <t>unusual in an endearing or peculiar way</t>
+  </si>
+  <si>
+    <t>reject or refute</t>
+  </si>
+  <si>
+    <t>skill in handling difficult situations without causing offense</t>
+  </si>
+  <si>
+    <t>lacking significance or importance</t>
+  </si>
+  <si>
+    <t>full of conflict or chaos</t>
+  </si>
+  <si>
+    <t>His boorish behavior at the formal dinner, including interrupting others and speaking rudely, left the hosts deeply offended.</t>
+  </si>
+  <si>
+    <t>The teacher would brook no excuses for late assignments, insisting on punctuality from all her students.</t>
+  </si>
+  <si>
+    <t>Given the sensitive nature of the negotiations, the diplomat was circumspect in his choice of words to avoid any misunderstandings.</t>
+  </si>
+  <si>
+    <t>The comity between the two neighboring nations ensured decades of peaceful coexistence and mutual respect.</t>
+  </si>
+  <si>
+    <t>The candidate's impressive qualifications were commensurate with the high-level responsibilities of the position.</t>
+  </si>
+  <si>
+    <t>Despite their past disagreements, their meeting was cordial, with both parties exchanging pleasantries before discussing business.</t>
+  </si>
+  <si>
+    <t>The deleterious effects of pollution on marine life have prompted stricter environmental regulations worldwide.</t>
+  </si>
+  <si>
+    <t>The novel explores the dichotomy between tradition and modernity, portraying characters torn between the two.</t>
+  </si>
+  <si>
+    <t>The professor's lecture on ancient philosophy was intended not only to inform but also to edify the students on ethical dilemmas.</t>
+  </si>
+  <si>
+    <t>The investigator’s pointed questions were designed to elicit the truth from the reluctant witness.</t>
+  </si>
+  <si>
+    <t>The erudite scholar captivated the audience with his profound knowledge of medieval literature.</t>
+  </si>
+  <si>
+    <t>The fecund soil of the river valley supported a diverse array of crops, ensuring a bountiful harvest each year.</t>
+  </si>
+  <si>
+    <t>His feeble attempt to lift the heavy box demonstrated just how exhausted he was after the long hike.</t>
+  </si>
+  <si>
+    <t>Her felicitous choice of words during the toast brought laughter and joy to everyone at the wedding.</t>
+  </si>
+  <si>
+    <t>Despite the provocations, he managed to forbear from responding with anger, maintaining his composure.</t>
+  </si>
+  <si>
+    <t>The haphazard arrangement of the furniture in the room made it difficult to navigate without bumping into something.</t>
+  </si>
+  <si>
+    <t>The festival's food court was a hodgepodge of cuisines, offering everything from Italian pasta to Korean barbecue.</t>
+  </si>
+  <si>
+    <t>The heavy snowfall threatened to impede rescue efforts, delaying the arrival of aid to the remote village.</t>
+  </si>
+  <si>
+    <t>His impetuous decision to quit his job without a backup plan left him struggling to pay his bills.</t>
+  </si>
+  <si>
+    <t>The irascible coach often yelled at the players for even minor mistakes, making practices tense and uncomfortable.</t>
+  </si>
+  <si>
+    <t>His mercenary approach to relationships, valuing personal gain over genuine connection, alienated even his closest friends.</t>
+  </si>
+  <si>
+    <t>The scientist was meticulous in her experiments, ensuring that every detail was documented with precision.</t>
+  </si>
+  <si>
+    <t>The critic’s mordant review of the play, filled with biting humor, left the cast feeling both amused and insulted.</t>
+  </si>
+  <si>
+    <t>The small startup managed to outstrip its competitors by offering innovative solutions and exceptional customer service.</t>
+  </si>
+  <si>
+    <t>After losing his job, he found himself in a precarious financial situation, struggling to make ends meet.</t>
+  </si>
+  <si>
+    <t>The artist’s quirky sense of style, including mismatched socks and brightly colored hats, made her instantly recognizable.</t>
+  </si>
+  <si>
+    <t>He chose to repudiate the allegations against him, presenting evidence to clear his name.</t>
+  </si>
+  <si>
+    <t>She handled the sensitive topic with great tact, ensuring that no one in the meeting felt offended or dismissed.</t>
+  </si>
+  <si>
+    <t>He dismissed her concerns as trifling, not realizing how important the issue was to her.</t>
+  </si>
+  <si>
+    <t>The turbulent political climate led to widespread protests and uncertainty about the nation's future.</t>
+  </si>
+  <si>
+    <t>Boorish</t>
+  </si>
+  <si>
+    <t>Brook</t>
+  </si>
+  <si>
+    <t>Circumspect</t>
+  </si>
+  <si>
+    <t>Comity</t>
+  </si>
+  <si>
+    <t>Commensurate</t>
+  </si>
+  <si>
+    <t>Cordial</t>
+  </si>
+  <si>
+    <t>Deleterious</t>
+  </si>
+  <si>
+    <t>Dichotomy</t>
+  </si>
+  <si>
+    <t>Edify</t>
+  </si>
+  <si>
+    <t>Elicit</t>
+  </si>
+  <si>
+    <t>Erudite</t>
+  </si>
+  <si>
+    <t>Fecund</t>
+  </si>
+  <si>
+    <t>Feeble</t>
+  </si>
+  <si>
+    <t>Felicitous</t>
+  </si>
+  <si>
+    <t>Forbear</t>
+  </si>
+  <si>
+    <t>Haphazard</t>
+  </si>
+  <si>
+    <t>Hodgepodge</t>
+  </si>
+  <si>
+    <t>Impede</t>
+  </si>
+  <si>
+    <t>Impetuous</t>
+  </si>
+  <si>
+    <t>Irascible</t>
+  </si>
+  <si>
+    <t>Mercenary</t>
+  </si>
+  <si>
+    <t>Meticulous</t>
+  </si>
+  <si>
+    <t>Mordant</t>
+  </si>
+  <si>
+    <t>Outstrip</t>
+  </si>
+  <si>
+    <t>Precarious</t>
+  </si>
+  <si>
+    <t>Quirky</t>
+  </si>
+  <si>
+    <t>Repudiate</t>
+  </si>
+  <si>
+    <t>Tact</t>
+  </si>
+  <si>
+    <t>Trifling</t>
+  </si>
+  <si>
+    <t>Turbulent</t>
+  </si>
+  <si>
+    <t>Acumen</t>
+  </si>
+  <si>
+    <t>the ability to make good judgments and take quick decisions.</t>
+  </si>
+  <si>
+    <t>Antithesis</t>
+  </si>
+  <si>
+    <t>a person or thing that is the direct opposite of someone or something else.</t>
+  </si>
+  <si>
+    <t>Ascribe</t>
+  </si>
+  <si>
+    <t>regard something as being due to (a cause)./assign</t>
+  </si>
+  <si>
+    <t>Befuddled</t>
+  </si>
+  <si>
+    <t>cause to become unable to think clearly.</t>
+  </si>
+  <si>
+    <t>Eschew</t>
+  </si>
+  <si>
+    <t>deliberately avoid using; abstain from.</t>
+  </si>
+  <si>
+    <t>Esoteric</t>
+  </si>
+  <si>
+    <t>intended for or likely to be understood by only a small number of people with a specialized knowledge or interest.</t>
+  </si>
+  <si>
+    <t>Evasive</t>
+  </si>
+  <si>
+    <t>tending to avoid commitment or self-revelation, especially by responding only indirectly.</t>
+  </si>
+  <si>
+    <t>Exculpate</t>
+  </si>
+  <si>
+    <t>show or declare that (someone) is not guilty of wrongdoing</t>
+  </si>
+  <si>
+    <t>Expedite</t>
+  </si>
+  <si>
+    <t>make (an action or process) happen sooner or be accomplished more quickly.</t>
+  </si>
+  <si>
+    <t>Fastidious</t>
+  </si>
+  <si>
+    <t>very attentive to and concerned about accuracy and detail.</t>
+  </si>
+  <si>
+    <t>Feign</t>
+  </si>
+  <si>
+    <t>pretend to be affected by (a feeling, state, or injury).</t>
+  </si>
+  <si>
+    <t>Furtive</t>
+  </si>
+  <si>
+    <t>attempting to avoid notice or attention, typically because of guilt or a belief that discovery would lead to trouble; secretive.</t>
+  </si>
+  <si>
+    <t>Hamper</t>
+  </si>
+  <si>
+    <t>hinder or impede the movement or progress of</t>
+  </si>
+  <si>
+    <t>Indispensable</t>
+  </si>
+  <si>
+    <t>absolutely necessary.</t>
+  </si>
+  <si>
+    <t>Lament</t>
+  </si>
+  <si>
+    <t>a passionate expression of grief or sorrow.</t>
+  </si>
+  <si>
+    <t>Myopic</t>
+  </si>
+  <si>
+    <t>short-sighted or lacking foresight or intellectual insight.</t>
+  </si>
+  <si>
+    <t>Nonchalant</t>
+  </si>
+  <si>
+    <t>feeling or appearing casually calm and relaxed;</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>existing only in part; incomplete.</t>
+  </si>
+  <si>
+    <t>Pensive</t>
+  </si>
+  <si>
+    <t>engaged in, involving, or reflecting deep or serious thought.</t>
+  </si>
+  <si>
+    <t>Portend</t>
+  </si>
+  <si>
+    <t>be a sign of warning that (something, especially something momentous or calamitous) is likely to happen.</t>
+  </si>
+  <si>
+    <t>Provincial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of or concerning a province of a country or empire.</t>
+  </si>
+  <si>
+    <t>Rudimentary</t>
+  </si>
+  <si>
+    <t>involving or limited to basic principles.</t>
+  </si>
+  <si>
+    <t>Salutary</t>
+  </si>
+  <si>
+    <t>producing good effects; beneficial.</t>
+  </si>
+  <si>
+    <t>Sever</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> divide by cutting or slicing, especially suddenly and forcibly.</t>
+  </si>
+  <si>
+    <t>Slight</t>
+  </si>
+  <si>
+    <t>insult (someone) by treating or speaking of them without proper respect or attention.</t>
+  </si>
+  <si>
+    <t>Somnolent</t>
+  </si>
+  <si>
+    <t>sleepy; drowsy.</t>
+  </si>
+  <si>
+    <t>Stoic</t>
+  </si>
+  <si>
+    <t>a person who can endure pain or hardship without showing their feelings or complaining.</t>
+  </si>
+  <si>
+    <t>Supersede</t>
+  </si>
+  <si>
+    <t>Take the place of (a person or thing previously in authority or use); supplant.</t>
+  </si>
+  <si>
+    <t>Tout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> attempt to sell (something), typically by a direct or persistent approach.</t>
+  </si>
+  <si>
+    <t>Wane</t>
+  </si>
+  <si>
+    <t>progressively smaller part of its visible surface illuminated, so that it appears to decrease in size.</t>
+  </si>
+  <si>
+    <t>Her financial acumen allowed the company to navigate the economic downturn and emerge more profitable than ever.</t>
+  </si>
+  <si>
+    <t>The serene countryside setting was the antithesis of the bustling, chaotic city he had left behind.</t>
+  </si>
+  <si>
+    <t>The critics ascribed the novel's success to its compelling characters and intricate plot.</t>
+  </si>
+  <si>
+    <t>The complex instructions left the new employee completely befuddled, unsure of where to begin.</t>
+  </si>
+  <si>
+    <t>To maintain his health, he decided to eschew processed foods and focus on a diet rich in fresh produce.</t>
+  </si>
+  <si>
+    <t>The professor’s lecture on quantum mechanics delved into esoteric concepts that only a handful of students could grasp.</t>
+  </si>
+  <si>
+    <t>When asked about his involvement in the project, he gave an evasive answer, avoiding any specifics.</t>
+  </si>
+  <si>
+    <t>The new evidence served to exculpate the defendant, proving that he was not at the scene of the crime.</t>
+  </si>
+  <si>
+    <t>The company hired additional staff to expedite the processing of customer orders during the holiday season.</t>
+  </si>
+  <si>
+    <t>Known for her fastidious nature, she spent hours ensuring that every detail of the event was perfect.</t>
+  </si>
+  <si>
+    <t>He tried to feign enthusiasm for the plan, but his lack of genuine interest was evident.</t>
+  </si>
+  <si>
+    <t>She cast a furtive glance at her phone during the meeting, hoping no one would notice.</t>
+  </si>
+  <si>
+    <t>The heavy rain threatened to hamper the outdoor wedding, forcing the organizers to consider moving it indoors.</t>
+  </si>
+  <si>
+    <t>Good communication skills are indispensable for anyone aspiring to a leadership role in the company.</t>
+  </si>
+  <si>
+    <t>He lamented the loss of his childhood home, which had been sold and replaced by a shopping mall.</t>
+  </si>
+  <si>
+    <t>His myopic focus on short-term profits prevented the company from investing in long-term innovation.</t>
+  </si>
+  <si>
+    <t>Despite the chaos around him, he remained nonchalant, sipping his coffee as if nothing were amiss.</t>
+  </si>
+  <si>
+    <t>The judge recused himself from the case to avoid any appearance of being partial toward one party.</t>
+  </si>
+  <si>
+    <t>After hearing the news, she sat by the window with a pensive expression, lost in her thoughts.</t>
+  </si>
+  <si>
+    <t>The sudden drop in temperature and darkening skies seemed to portend an approaching storm.</t>
+  </si>
+  <si>
+    <t>His provincial perspective on world issues often clashed with the broader views of his well-traveled colleagues.</t>
+  </si>
+  <si>
+    <t>The training program covered only the rudimentary aspects of coding, leaving the participants eager to learn more.</t>
+  </si>
+  <si>
+    <t>The strict feedback from her mentor had a salutary effect, pushing her to improve her work ethic.</t>
+  </si>
+  <si>
+    <t>After years of disagreements, he decided to sever all ties with the organization and start afresh.</t>
+  </si>
+  <si>
+    <t>She took his offhand comment as a slight, even though he hadn’t intended to offend her.</t>
+  </si>
+  <si>
+    <t>The somnolent rhythm of the train gently lulled the passengers into a peaceful sleep.</t>
+  </si>
+  <si>
+    <t>Despite the harsh criticism, she remained stoic, refusing to let her emotions show.</t>
+  </si>
+  <si>
+    <t>The latest smartphone model will supersede the previous version with its advanced features and improved design.</t>
+  </si>
+  <si>
+    <t>The company’s new advertising campaign touts its product as the most innovative solution on the market.</t>
+  </si>
+  <si>
+    <t>His enthusiasm for the project began to wane as the challenges mounted and progress slowed.</t>
+  </si>
+  <si>
+    <t>Abhor</t>
+  </si>
+  <si>
+    <t>Boisterous</t>
+  </si>
+  <si>
+    <t>Chivalrous</t>
+  </si>
+  <si>
+    <t>Churlish</t>
+  </si>
+  <si>
+    <t>Clandestine</t>
+  </si>
+  <si>
+    <t>Complacent</t>
+  </si>
+  <si>
+    <t>Cumbersome</t>
+  </si>
+  <si>
+    <t>Debilitating</t>
+  </si>
+  <si>
+    <t>Deliberate</t>
+  </si>
+  <si>
+    <t>Droll</t>
+  </si>
+  <si>
+    <t>Eccentric</t>
+  </si>
+  <si>
+    <t>Fractious</t>
+  </si>
+  <si>
+    <t>Limpid</t>
+  </si>
+  <si>
+    <t>Mawkish</t>
+  </si>
+  <si>
+    <t>Obeisance</t>
+  </si>
+  <si>
+    <t>Ostentatious</t>
+  </si>
+  <si>
+    <t>Panacea</t>
+  </si>
+  <si>
+    <t>Perfunctory</t>
+  </si>
+  <si>
+    <t>Perilous</t>
+  </si>
+  <si>
+    <t>Pervasive</t>
+  </si>
+  <si>
+    <t>Preclude</t>
+  </si>
+  <si>
+    <t>Predilection</t>
+  </si>
+  <si>
+    <t>Rapacious</t>
+  </si>
+  <si>
+    <t>Relish</t>
+  </si>
+  <si>
+    <t>Satirical</t>
+  </si>
+  <si>
+    <t>Sham</t>
+  </si>
+  <si>
+    <t>Skirt</t>
+  </si>
+  <si>
+    <t>Sluggish</t>
+  </si>
+  <si>
+    <t>Spartan</t>
+  </si>
+  <si>
+    <t>Truculent</t>
+  </si>
+  <si>
+    <t>She abhors dishonesty in all forms and refuses to tolerate even small lies.</t>
+  </si>
+  <si>
+    <t>The boisterous crowd at the football match cheered loudly, their energy electrifying the stadium.</t>
+  </si>
+  <si>
+    <t>His chivalrous gesture of giving up his seat to the elderly woman drew admiration from the bystanders.</t>
+  </si>
+  <si>
+    <t>His churlish behavior at the dinner party embarrassed his family and irritated the guests.</t>
+  </si>
+  <si>
+    <t>The spies held a clandestine meeting under the cover of darkness to exchange classified information.</t>
+  </si>
+  <si>
+    <t>After securing the initial funding, the team became complacent and failed to innovate further.</t>
+  </si>
+  <si>
+    <t>The old computer system was so cumbersome that it slowed down the entire workflow.</t>
+  </si>
+  <si>
+    <t>The athlete’s career was cut short by a debilitating injury that left him unable to compete.</t>
+  </si>
+  <si>
+    <t>Her deliberate choice of words during the negotiation ensured that no misunderstandings arose.</t>
+  </si>
+  <si>
+    <t>His droll sense of humor had everyone laughing at even the most mundane situations.</t>
+  </si>
+  <si>
+    <t>The artist’s eccentric style, featuring bold colors and abstract shapes, set her work apart from others.</t>
+  </si>
+  <si>
+    <t>The fractious debate among the committee members delayed the decision-making process for hours.</t>
+  </si>
+  <si>
+    <t>The limpid waters of the mountain lake reflected the surrounding peaks with crystal clarity.</t>
+  </si>
+  <si>
+    <t>The movie’s mawkish ending, filled with overly sentimental dialogue, left the audience cringing.</t>
+  </si>
+  <si>
+    <t>The villagers bowed in deep obeisance to their king as he entered the temple.</t>
+  </si>
+  <si>
+    <t>His ostentatious display of wealth, from flashy cars to designer clothing, made him the talk of the town.</t>
+  </si>
+  <si>
+    <t>Many believe that technological advancements are a panacea for the world’s problems, though this view is often oversimplified.</t>
+  </si>
+  <si>
+    <t>The manager’s perfunctory inspection of the facility failed to uncover the glaring safety hazards.</t>
+  </si>
+  <si>
+    <t>The climbers undertook a perilous journey across the icy cliffs, risking their lives to reach the summit.</t>
+  </si>
+  <si>
+    <t>The pervasive smell of freshly baked bread filled the entire house, making everyone hungry.</t>
+  </si>
+  <si>
+    <t>His poor academic record precludes him from being considered for the scholarship.</t>
+  </si>
+  <si>
+    <t>Her predilection for classical music over modern genres was evident in her extensive vinyl collection.</t>
+  </si>
+  <si>
+    <t>The rapacious landlords charged exorbitant rents, exploiting the tenants’ lack of options.</t>
+  </si>
+  <si>
+    <t>He relished the opportunity to showcase his skills in front of an esteemed audience.</t>
+  </si>
+  <si>
+    <t>The satirical cartoon poked fun at political leaders, highlighting their hypocrisies in a humorous way.</t>
+  </si>
+  <si>
+    <t>The product’s claim to provide instant results was nothing more than a sham to deceive customers.</t>
+  </si>
+  <si>
+    <t>He tried to skirt the issue of his tardiness by diverting the conversation to another topic.</t>
+  </si>
+  <si>
+    <t>The sluggish economy made it difficult for new businesses to thrive.</t>
+  </si>
+  <si>
+    <t>His spartan living conditions, with only a cot and a table, reflected his minimalist lifestyle.</t>
+  </si>
+  <si>
+    <t>The truculent customer refused to listen to reason and continued to berate the store staff.</t>
+  </si>
+  <si>
+    <t>noisy, energetic, and cheerful. Or  (of weather or water) wild or stormy.</t>
+  </si>
+  <si>
+    <t>regard with disgust and hatred.</t>
+  </si>
+  <si>
+    <t>(of a man or his behaviour) courteous and gallant, especially towards women. or  relating to the historical concept of chivalry.</t>
+  </si>
+  <si>
+    <t>rude in a mean-spirited and surly way.</t>
+  </si>
+  <si>
+    <t>kept secret or done secretively, especially because illicit.</t>
+  </si>
+  <si>
+    <t>showing smug or uncritical satisfaction with oneself or one's achievements.</t>
+  </si>
+  <si>
+    <t>large or heavy and therefore difficult to carry or use; unwieldy. or slow or complicated and therefore inefficient.</t>
+  </si>
+  <si>
+    <t>make (someone) very weak and infirm.</t>
+  </si>
+  <si>
+    <t>done consciously and intentionally.</t>
+  </si>
+  <si>
+    <t>curious or unusual in a way that provokes dry amusement.</t>
+  </si>
+  <si>
+    <t>(of a person or their behavior) unconventional and slightly strange.</t>
+  </si>
+  <si>
+    <t>(typically of children) irritable and quarrelsome. Or (of a group or organization) difficult to control; unruly.</t>
+  </si>
+  <si>
+    <t>completely clear and transparent. Or(especially of writing or music) clear and accessible or melodious.</t>
+  </si>
+  <si>
+    <t>sentimental in an exaggerated or false way.</t>
+  </si>
+  <si>
+    <t>a gesture expressing deferential respect, such as a bow or curtsy.</t>
+  </si>
+  <si>
+    <t>characterized by pretentious or showy display; designed to impress.</t>
+  </si>
+  <si>
+    <t>a solution or remedy for all difficulties or diseases.</t>
+  </si>
+  <si>
+    <t>(of an action) carried out without real interest, feeling, or effort.</t>
+  </si>
+  <si>
+    <t>full of danger or risk.</t>
+  </si>
+  <si>
+    <t>(especially of an unwelcome influence or physical effect) spreading widely throughout an area or a group of people.</t>
+  </si>
+  <si>
+    <t>prevent from happening; make impossible.</t>
+  </si>
+  <si>
+    <t>a preference or special liking for something; a bias in favour of something.</t>
+  </si>
+  <si>
+    <t>aggressively greedy or grasping.</t>
+  </si>
+  <si>
+    <t>enjoy greatly. Or anticipate with pleasure.</t>
+  </si>
+  <si>
+    <t>sarcastic, critical, and mocking another's weaknesses.</t>
+  </si>
+  <si>
+    <t>falsely present something as the truth.</t>
+  </si>
+  <si>
+    <t>attempt to ignore; avoid dealing with. Or go round or past the edge of.</t>
+  </si>
+  <si>
+    <t>slow-moving or inactive. Or lacking energy or alertness.</t>
+  </si>
+  <si>
+    <t>showing or characterized by austerity or a lack of comfort or luxury.</t>
+  </si>
+  <si>
+    <t>eager or quick to argue or fight; aggressively defiant.</t>
   </si>
 </sst>
 </file>
@@ -2616,11 +3426,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB46DAB-6DAD-47F2-BFB1-C20612ECF682}">
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E222" sqref="E222"/>
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D322" sqref="D322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6729,8 +7539,1538 @@
         <v>724</v>
       </c>
     </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>8</v>
+      </c>
+      <c r="B242">
+        <v>241</v>
+      </c>
+      <c r="C242" t="s">
+        <v>785</v>
+      </c>
+      <c r="D242" t="s">
+        <v>725</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>8</v>
+      </c>
+      <c r="B243">
+        <v>242</v>
+      </c>
+      <c r="C243" t="s">
+        <v>786</v>
+      </c>
+      <c r="D243" t="s">
+        <v>726</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>8</v>
+      </c>
+      <c r="B244">
+        <v>243</v>
+      </c>
+      <c r="C244" t="s">
+        <v>787</v>
+      </c>
+      <c r="D244" t="s">
+        <v>727</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>8</v>
+      </c>
+      <c r="B245">
+        <v>244</v>
+      </c>
+      <c r="C245" t="s">
+        <v>788</v>
+      </c>
+      <c r="D245" t="s">
+        <v>728</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>8</v>
+      </c>
+      <c r="B246">
+        <v>245</v>
+      </c>
+      <c r="C246" t="s">
+        <v>789</v>
+      </c>
+      <c r="D246" t="s">
+        <v>729</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>8</v>
+      </c>
+      <c r="B247">
+        <v>246</v>
+      </c>
+      <c r="C247" t="s">
+        <v>790</v>
+      </c>
+      <c r="D247" t="s">
+        <v>730</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>8</v>
+      </c>
+      <c r="B248">
+        <v>247</v>
+      </c>
+      <c r="C248" t="s">
+        <v>791</v>
+      </c>
+      <c r="D248" t="s">
+        <v>731</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>8</v>
+      </c>
+      <c r="B249">
+        <v>248</v>
+      </c>
+      <c r="C249" t="s">
+        <v>792</v>
+      </c>
+      <c r="D249" t="s">
+        <v>732</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>8</v>
+      </c>
+      <c r="B250">
+        <v>249</v>
+      </c>
+      <c r="C250" t="s">
+        <v>793</v>
+      </c>
+      <c r="D250" t="s">
+        <v>733</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>8</v>
+      </c>
+      <c r="B251">
+        <v>250</v>
+      </c>
+      <c r="C251" t="s">
+        <v>794</v>
+      </c>
+      <c r="D251" t="s">
+        <v>734</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>8</v>
+      </c>
+      <c r="B252">
+        <v>251</v>
+      </c>
+      <c r="C252" t="s">
+        <v>795</v>
+      </c>
+      <c r="D252" t="s">
+        <v>735</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>8</v>
+      </c>
+      <c r="B253">
+        <v>252</v>
+      </c>
+      <c r="C253" t="s">
+        <v>796</v>
+      </c>
+      <c r="D253" t="s">
+        <v>736</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>8</v>
+      </c>
+      <c r="B254">
+        <v>253</v>
+      </c>
+      <c r="C254" t="s">
+        <v>797</v>
+      </c>
+      <c r="D254" t="s">
+        <v>737</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>8</v>
+      </c>
+      <c r="B255">
+        <v>254</v>
+      </c>
+      <c r="C255" t="s">
+        <v>798</v>
+      </c>
+      <c r="D255" t="s">
+        <v>738</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>8</v>
+      </c>
+      <c r="B256">
+        <v>255</v>
+      </c>
+      <c r="C256" t="s">
+        <v>799</v>
+      </c>
+      <c r="D256" t="s">
+        <v>739</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>8</v>
+      </c>
+      <c r="B257">
+        <v>256</v>
+      </c>
+      <c r="C257" t="s">
+        <v>800</v>
+      </c>
+      <c r="D257" t="s">
+        <v>740</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>8</v>
+      </c>
+      <c r="B258">
+        <v>257</v>
+      </c>
+      <c r="C258" t="s">
+        <v>801</v>
+      </c>
+      <c r="D258" t="s">
+        <v>741</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>8</v>
+      </c>
+      <c r="B259">
+        <v>258</v>
+      </c>
+      <c r="C259" t="s">
+        <v>802</v>
+      </c>
+      <c r="D259" t="s">
+        <v>742</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>8</v>
+      </c>
+      <c r="B260">
+        <v>259</v>
+      </c>
+      <c r="C260" t="s">
+        <v>803</v>
+      </c>
+      <c r="D260" t="s">
+        <v>743</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>8</v>
+      </c>
+      <c r="B261">
+        <v>260</v>
+      </c>
+      <c r="C261" t="s">
+        <v>804</v>
+      </c>
+      <c r="D261" t="s">
+        <v>744</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>8</v>
+      </c>
+      <c r="B262">
+        <v>261</v>
+      </c>
+      <c r="C262" t="s">
+        <v>805</v>
+      </c>
+      <c r="D262" t="s">
+        <v>745</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>8</v>
+      </c>
+      <c r="B263">
+        <v>262</v>
+      </c>
+      <c r="C263" t="s">
+        <v>806</v>
+      </c>
+      <c r="D263" t="s">
+        <v>746</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>8</v>
+      </c>
+      <c r="B264">
+        <v>263</v>
+      </c>
+      <c r="C264" t="s">
+        <v>807</v>
+      </c>
+      <c r="D264" t="s">
+        <v>747</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>8</v>
+      </c>
+      <c r="B265">
+        <v>264</v>
+      </c>
+      <c r="C265" t="s">
+        <v>808</v>
+      </c>
+      <c r="D265" t="s">
+        <v>748</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>8</v>
+      </c>
+      <c r="B266">
+        <v>265</v>
+      </c>
+      <c r="C266" t="s">
+        <v>809</v>
+      </c>
+      <c r="D266" t="s">
+        <v>749</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>8</v>
+      </c>
+      <c r="B267">
+        <v>266</v>
+      </c>
+      <c r="C267" t="s">
+        <v>810</v>
+      </c>
+      <c r="D267" t="s">
+        <v>750</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>8</v>
+      </c>
+      <c r="B268">
+        <v>267</v>
+      </c>
+      <c r="C268" t="s">
+        <v>811</v>
+      </c>
+      <c r="D268" t="s">
+        <v>751</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>8</v>
+      </c>
+      <c r="B269">
+        <v>268</v>
+      </c>
+      <c r="C269" t="s">
+        <v>812</v>
+      </c>
+      <c r="D269" t="s">
+        <v>752</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>8</v>
+      </c>
+      <c r="B270">
+        <v>269</v>
+      </c>
+      <c r="C270" t="s">
+        <v>813</v>
+      </c>
+      <c r="D270" t="s">
+        <v>753</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>8</v>
+      </c>
+      <c r="B271">
+        <v>270</v>
+      </c>
+      <c r="C271" t="s">
+        <v>814</v>
+      </c>
+      <c r="D271" t="s">
+        <v>754</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>9</v>
+      </c>
+      <c r="B272">
+        <v>271</v>
+      </c>
+      <c r="C272" t="s">
+        <v>815</v>
+      </c>
+      <c r="D272" t="s">
+        <v>816</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>9</v>
+      </c>
+      <c r="B273">
+        <v>272</v>
+      </c>
+      <c r="C273" t="s">
+        <v>817</v>
+      </c>
+      <c r="D273" t="s">
+        <v>818</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>9</v>
+      </c>
+      <c r="B274">
+        <v>273</v>
+      </c>
+      <c r="C274" t="s">
+        <v>819</v>
+      </c>
+      <c r="D274" t="s">
+        <v>820</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>9</v>
+      </c>
+      <c r="B275">
+        <v>274</v>
+      </c>
+      <c r="C275" t="s">
+        <v>821</v>
+      </c>
+      <c r="D275" t="s">
+        <v>822</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>9</v>
+      </c>
+      <c r="B276">
+        <v>275</v>
+      </c>
+      <c r="C276" t="s">
+        <v>823</v>
+      </c>
+      <c r="D276" t="s">
+        <v>824</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>9</v>
+      </c>
+      <c r="B277">
+        <v>276</v>
+      </c>
+      <c r="C277" t="s">
+        <v>825</v>
+      </c>
+      <c r="D277" t="s">
+        <v>826</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>9</v>
+      </c>
+      <c r="B278">
+        <v>277</v>
+      </c>
+      <c r="C278" t="s">
+        <v>827</v>
+      </c>
+      <c r="D278" t="s">
+        <v>828</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>9</v>
+      </c>
+      <c r="B279">
+        <v>278</v>
+      </c>
+      <c r="C279" t="s">
+        <v>829</v>
+      </c>
+      <c r="D279" t="s">
+        <v>830</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>9</v>
+      </c>
+      <c r="B280">
+        <v>279</v>
+      </c>
+      <c r="C280" t="s">
+        <v>831</v>
+      </c>
+      <c r="D280" t="s">
+        <v>832</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>9</v>
+      </c>
+      <c r="B281">
+        <v>280</v>
+      </c>
+      <c r="C281" t="s">
+        <v>833</v>
+      </c>
+      <c r="D281" t="s">
+        <v>834</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>9</v>
+      </c>
+      <c r="B282">
+        <v>281</v>
+      </c>
+      <c r="C282" t="s">
+        <v>835</v>
+      </c>
+      <c r="D282" t="s">
+        <v>836</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>9</v>
+      </c>
+      <c r="B283">
+        <v>282</v>
+      </c>
+      <c r="C283" t="s">
+        <v>837</v>
+      </c>
+      <c r="D283" t="s">
+        <v>838</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>9</v>
+      </c>
+      <c r="B284">
+        <v>283</v>
+      </c>
+      <c r="C284" t="s">
+        <v>839</v>
+      </c>
+      <c r="D284" t="s">
+        <v>840</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>9</v>
+      </c>
+      <c r="B285">
+        <v>284</v>
+      </c>
+      <c r="C285" t="s">
+        <v>841</v>
+      </c>
+      <c r="D285" t="s">
+        <v>842</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>9</v>
+      </c>
+      <c r="B286">
+        <v>285</v>
+      </c>
+      <c r="C286" t="s">
+        <v>843</v>
+      </c>
+      <c r="D286" t="s">
+        <v>844</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>9</v>
+      </c>
+      <c r="B287">
+        <v>286</v>
+      </c>
+      <c r="C287" t="s">
+        <v>845</v>
+      </c>
+      <c r="D287" t="s">
+        <v>846</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>9</v>
+      </c>
+      <c r="B288">
+        <v>287</v>
+      </c>
+      <c r="C288" t="s">
+        <v>847</v>
+      </c>
+      <c r="D288" t="s">
+        <v>848</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>9</v>
+      </c>
+      <c r="B289">
+        <v>288</v>
+      </c>
+      <c r="C289" t="s">
+        <v>849</v>
+      </c>
+      <c r="D289" t="s">
+        <v>850</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>9</v>
+      </c>
+      <c r="B290">
+        <v>289</v>
+      </c>
+      <c r="C290" t="s">
+        <v>851</v>
+      </c>
+      <c r="D290" t="s">
+        <v>852</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>9</v>
+      </c>
+      <c r="B291">
+        <v>290</v>
+      </c>
+      <c r="C291" t="s">
+        <v>853</v>
+      </c>
+      <c r="D291" t="s">
+        <v>854</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>9</v>
+      </c>
+      <c r="B292">
+        <v>291</v>
+      </c>
+      <c r="C292" t="s">
+        <v>855</v>
+      </c>
+      <c r="D292" t="s">
+        <v>856</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>9</v>
+      </c>
+      <c r="B293">
+        <v>292</v>
+      </c>
+      <c r="C293" t="s">
+        <v>857</v>
+      </c>
+      <c r="D293" t="s">
+        <v>858</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>9</v>
+      </c>
+      <c r="B294">
+        <v>293</v>
+      </c>
+      <c r="C294" t="s">
+        <v>859</v>
+      </c>
+      <c r="D294" t="s">
+        <v>860</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>9</v>
+      </c>
+      <c r="B295">
+        <v>294</v>
+      </c>
+      <c r="C295" t="s">
+        <v>861</v>
+      </c>
+      <c r="D295" t="s">
+        <v>862</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>9</v>
+      </c>
+      <c r="B296">
+        <v>295</v>
+      </c>
+      <c r="C296" t="s">
+        <v>863</v>
+      </c>
+      <c r="D296" t="s">
+        <v>864</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>9</v>
+      </c>
+      <c r="B297">
+        <v>296</v>
+      </c>
+      <c r="C297" t="s">
+        <v>865</v>
+      </c>
+      <c r="D297" t="s">
+        <v>866</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>9</v>
+      </c>
+      <c r="B298">
+        <v>297</v>
+      </c>
+      <c r="C298" t="s">
+        <v>867</v>
+      </c>
+      <c r="D298" t="s">
+        <v>868</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>9</v>
+      </c>
+      <c r="B299">
+        <v>298</v>
+      </c>
+      <c r="C299" t="s">
+        <v>869</v>
+      </c>
+      <c r="D299" t="s">
+        <v>870</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>9</v>
+      </c>
+      <c r="B300">
+        <v>299</v>
+      </c>
+      <c r="C300" t="s">
+        <v>871</v>
+      </c>
+      <c r="D300" t="s">
+        <v>872</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>9</v>
+      </c>
+      <c r="B301">
+        <v>300</v>
+      </c>
+      <c r="C301" t="s">
+        <v>873</v>
+      </c>
+      <c r="D301" t="s">
+        <v>874</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>9</v>
+      </c>
+      <c r="B302">
+        <v>301</v>
+      </c>
+      <c r="C302" t="s">
+        <v>905</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>9</v>
+      </c>
+      <c r="B303">
+        <v>302</v>
+      </c>
+      <c r="C303" t="s">
+        <v>906</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>9</v>
+      </c>
+      <c r="B304">
+        <v>303</v>
+      </c>
+      <c r="C304" t="s">
+        <v>907</v>
+      </c>
+      <c r="D304" t="s">
+        <v>967</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>9</v>
+      </c>
+      <c r="B305">
+        <v>304</v>
+      </c>
+      <c r="C305" t="s">
+        <v>908</v>
+      </c>
+      <c r="D305" t="s">
+        <v>968</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>9</v>
+      </c>
+      <c r="B306">
+        <v>305</v>
+      </c>
+      <c r="C306" t="s">
+        <v>909</v>
+      </c>
+      <c r="D306" t="s">
+        <v>969</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>9</v>
+      </c>
+      <c r="B307">
+        <v>306</v>
+      </c>
+      <c r="C307" t="s">
+        <v>910</v>
+      </c>
+      <c r="D307" t="s">
+        <v>970</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>9</v>
+      </c>
+      <c r="B308">
+        <v>307</v>
+      </c>
+      <c r="C308" t="s">
+        <v>911</v>
+      </c>
+      <c r="D308" t="s">
+        <v>971</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>9</v>
+      </c>
+      <c r="B309">
+        <v>308</v>
+      </c>
+      <c r="C309" t="s">
+        <v>912</v>
+      </c>
+      <c r="D309" t="s">
+        <v>972</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>9</v>
+      </c>
+      <c r="B310">
+        <v>309</v>
+      </c>
+      <c r="C310" t="s">
+        <v>913</v>
+      </c>
+      <c r="D310" t="s">
+        <v>973</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>9</v>
+      </c>
+      <c r="B311">
+        <v>310</v>
+      </c>
+      <c r="C311" t="s">
+        <v>914</v>
+      </c>
+      <c r="D311" t="s">
+        <v>974</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>9</v>
+      </c>
+      <c r="B312">
+        <v>311</v>
+      </c>
+      <c r="C312" t="s">
+        <v>915</v>
+      </c>
+      <c r="D312" t="s">
+        <v>975</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>9</v>
+      </c>
+      <c r="B313">
+        <v>312</v>
+      </c>
+      <c r="C313" t="s">
+        <v>916</v>
+      </c>
+      <c r="D313" t="s">
+        <v>976</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>9</v>
+      </c>
+      <c r="B314">
+        <v>313</v>
+      </c>
+      <c r="C314" t="s">
+        <v>917</v>
+      </c>
+      <c r="D314" t="s">
+        <v>977</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>9</v>
+      </c>
+      <c r="B315">
+        <v>314</v>
+      </c>
+      <c r="C315" t="s">
+        <v>918</v>
+      </c>
+      <c r="D315" t="s">
+        <v>978</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>9</v>
+      </c>
+      <c r="B316">
+        <v>315</v>
+      </c>
+      <c r="C316" t="s">
+        <v>919</v>
+      </c>
+      <c r="D316" t="s">
+        <v>979</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>9</v>
+      </c>
+      <c r="B317">
+        <v>316</v>
+      </c>
+      <c r="C317" t="s">
+        <v>920</v>
+      </c>
+      <c r="D317" t="s">
+        <v>980</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>9</v>
+      </c>
+      <c r="B318">
+        <v>317</v>
+      </c>
+      <c r="C318" t="s">
+        <v>921</v>
+      </c>
+      <c r="D318" t="s">
+        <v>981</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>9</v>
+      </c>
+      <c r="B319">
+        <v>318</v>
+      </c>
+      <c r="C319" t="s">
+        <v>922</v>
+      </c>
+      <c r="D319" t="s">
+        <v>982</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>9</v>
+      </c>
+      <c r="B320">
+        <v>319</v>
+      </c>
+      <c r="C320" t="s">
+        <v>923</v>
+      </c>
+      <c r="D320" t="s">
+        <v>983</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>9</v>
+      </c>
+      <c r="B321">
+        <v>320</v>
+      </c>
+      <c r="C321" t="s">
+        <v>924</v>
+      </c>
+      <c r="D321" t="s">
+        <v>984</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>9</v>
+      </c>
+      <c r="B322">
+        <v>321</v>
+      </c>
+      <c r="C322" t="s">
+        <v>925</v>
+      </c>
+      <c r="D322" t="s">
+        <v>985</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>9</v>
+      </c>
+      <c r="B323">
+        <v>322</v>
+      </c>
+      <c r="C323" t="s">
+        <v>926</v>
+      </c>
+      <c r="D323" t="s">
+        <v>986</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>9</v>
+      </c>
+      <c r="B324">
+        <v>323</v>
+      </c>
+      <c r="C324" t="s">
+        <v>927</v>
+      </c>
+      <c r="D324" t="s">
+        <v>987</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>9</v>
+      </c>
+      <c r="B325">
+        <v>324</v>
+      </c>
+      <c r="C325" t="s">
+        <v>928</v>
+      </c>
+      <c r="D325" t="s">
+        <v>988</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>9</v>
+      </c>
+      <c r="B326">
+        <v>325</v>
+      </c>
+      <c r="C326" t="s">
+        <v>929</v>
+      </c>
+      <c r="D326" t="s">
+        <v>989</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>9</v>
+      </c>
+      <c r="B327">
+        <v>326</v>
+      </c>
+      <c r="C327" t="s">
+        <v>930</v>
+      </c>
+      <c r="D327" t="s">
+        <v>990</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>9</v>
+      </c>
+      <c r="B328">
+        <v>327</v>
+      </c>
+      <c r="C328" t="s">
+        <v>931</v>
+      </c>
+      <c r="D328" t="s">
+        <v>991</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>9</v>
+      </c>
+      <c r="B329">
+        <v>328</v>
+      </c>
+      <c r="C329" t="s">
+        <v>932</v>
+      </c>
+      <c r="D329" t="s">
+        <v>992</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>9</v>
+      </c>
+      <c r="B330">
+        <v>329</v>
+      </c>
+      <c r="C330" t="s">
+        <v>933</v>
+      </c>
+      <c r="D330" t="s">
+        <v>993</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>9</v>
+      </c>
+      <c r="B331">
+        <v>330</v>
+      </c>
+      <c r="C331" t="s">
+        <v>934</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E241" xr:uid="{6EB46DAB-6DAD-47F2-BFB1-C20612ECF682}"/>
+  <autoFilter ref="A1:E301" xr:uid="{6EB46DAB-6DAD-47F2-BFB1-C20612ECF682}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShivaKumarVH\Downloads\gre_words_app_streamlit-main\gre_words_app_streamlit-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7626D946-8545-411A-9F9E-51D64372B359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B20F094-4785-4045-9A20-2291D8409068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B5DE0D44-D54A-486B-A645-FB03FF95277D}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B5DE0D44-D54A-486B-A645-FB03FF95277D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$361</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1084">
   <si>
     <t>words</t>
   </si>
@@ -3025,6 +3025,273 @@
   </si>
   <si>
     <t>eager or quick to argue or fight; aggressively defiant.</t>
+  </si>
+  <si>
+    <t>Acrimonious</t>
+  </si>
+  <si>
+    <t>Belligerent</t>
+  </si>
+  <si>
+    <t>Beneficent</t>
+  </si>
+  <si>
+    <t>Canny</t>
+  </si>
+  <si>
+    <t>Cavalier</t>
+  </si>
+  <si>
+    <t>Distressed</t>
+  </si>
+  <si>
+    <t>Dwindling</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Encyclopedic</t>
+  </si>
+  <si>
+    <t>Exacerbate</t>
+  </si>
+  <si>
+    <t>Exasperated</t>
+  </si>
+  <si>
+    <t>Fungible</t>
+  </si>
+  <si>
+    <t>Hackneyed</t>
+  </si>
+  <si>
+    <t>Incongruous</t>
+  </si>
+  <si>
+    <t>Interchangeable</t>
+  </si>
+  <si>
+    <t>Laconic</t>
+  </si>
+  <si>
+    <t>Lucrative</t>
+  </si>
+  <si>
+    <t>Magisterial</t>
+  </si>
+  <si>
+    <t>Onerous</t>
+  </si>
+  <si>
+    <t>Opprobrium</t>
+  </si>
+  <si>
+    <t>Parsimonious</t>
+  </si>
+  <si>
+    <t>Peripheral</t>
+  </si>
+  <si>
+    <t>Provocative</t>
+  </si>
+  <si>
+    <t>Renounce</t>
+  </si>
+  <si>
+    <t>Tempestuous</t>
+  </si>
+  <si>
+    <t>Tenable</t>
+  </si>
+  <si>
+    <t>Transgression</t>
+  </si>
+  <si>
+    <t>Urbane</t>
+  </si>
+  <si>
+    <t>Verisimilitude</t>
+  </si>
+  <si>
+    <t>Vitiate</t>
+  </si>
+  <si>
+    <t>argumentative, threatening, or aggressive</t>
+  </si>
+  <si>
+    <t>kind and charitable, producing good results or benefits</t>
+  </si>
+  <si>
+    <t>shrewd and cautious</t>
+  </si>
+  <si>
+    <t>exhibiting an overly casual attitude; unconcerned</t>
+  </si>
+  <si>
+    <t>experiencing nervousness, irritation, or sadness</t>
+  </si>
+  <si>
+    <t>decreasing steadily in size or quantity</t>
+  </si>
+  <si>
+    <t>overshadow or surpass</t>
+  </si>
+  <si>
+    <t>thorough; comprehensive in scope</t>
+  </si>
+  <si>
+    <t>make a situation or condition worse</t>
+  </si>
+  <si>
+    <t>severely irritated or angry</t>
+  </si>
+  <si>
+    <t>interchangeable for another item of a similar type</t>
+  </si>
+  <si>
+    <t>lacking creativity; derivative and overused</t>
+  </si>
+  <si>
+    <t>out of place; lacking harmony</t>
+  </si>
+  <si>
+    <t>capable of being used in place of each other</t>
+  </si>
+  <si>
+    <t>economical with words; quiet and reserved</t>
+  </si>
+  <si>
+    <t>producing a significant amount of money</t>
+  </si>
+  <si>
+    <t>possessing great authority</t>
+  </si>
+  <si>
+    <t>involving a heavy burden; challenging or difficult</t>
+  </si>
+  <si>
+    <t>severe criticism or public shame</t>
+  </si>
+  <si>
+    <t>extremely frugal or stingy</t>
+  </si>
+  <si>
+    <t>of marginal importance; minor</t>
+  </si>
+  <si>
+    <t>causing outrage or irritation, often intentionally</t>
+  </si>
+  <si>
+    <t>reject or give up</t>
+  </si>
+  <si>
+    <t>(of emotions or actions) unrestrained and turbulent</t>
+  </si>
+  <si>
+    <t>(of an idea or method) justifiable and rational</t>
+  </si>
+  <si>
+    <t>a violation of a law, rule, or social norm</t>
+  </si>
+  <si>
+    <t>refined, sophisticated, and courteous</t>
+  </si>
+  <si>
+    <t>appearance or semblance of truth or reality; believability.</t>
+  </si>
+  <si>
+    <t>impair or corrupt the quality of something</t>
+  </si>
+  <si>
+    <t>The debate between the two candidates became acrimonious, with personal attacks overshadowing the issues.</t>
+  </si>
+  <si>
+    <t>His belligerent tone during the negotiation only made it harder to reach a peaceful resolution.</t>
+  </si>
+  <si>
+    <t>The beneficent philanthropist donated millions to help underprivileged children access education.</t>
+  </si>
+  <si>
+    <t>Her canny investments in the stock market earned her significant returns despite the economic downturn.</t>
+  </si>
+  <si>
+    <t>His cavalier attitude toward deadlines frustrated his team, who were working hard to meet the schedule.</t>
+  </si>
+  <si>
+    <t>She became distressed after learning about the unexpected delay in her project’s approval.</t>
+  </si>
+  <si>
+    <t>The company’s dwindling profits forced them to reconsider their business strategy.</t>
+  </si>
+  <si>
+    <t>His groundbreaking research managed to eclipse all previous studies on the subject.</t>
+  </si>
+  <si>
+    <t>Her encyclopedic knowledge of history made her an invaluable resource for the research team.</t>
+  </si>
+  <si>
+    <t>The manager’s refusal to address the complaints only served to exacerbate the tensions among employees.</t>
+  </si>
+  <si>
+    <t>She was exasperated by his repeated excuses for missing important meetings.</t>
+  </si>
+  <si>
+    <t>In the commodities market, gold and silver are considered fungible assets, easily traded for one another.</t>
+  </si>
+  <si>
+    <t>The movie’s hackneyed plot failed to engage the audience, as it felt predictable and overused.</t>
+  </si>
+  <si>
+    <t>The modern design of the building looked incongruous in the historic neighborhood.</t>
+  </si>
+  <si>
+    <t>The two terms are not interchangeable, as each has a distinct meaning in legal contexts.</t>
+  </si>
+  <si>
+    <t>His laconic reply, consisting of just a single word, left everyone in the room confused.</t>
+  </si>
+  <si>
+    <t>The startup turned out to be a lucrative venture, generating substantial profits within its first year.</t>
+  </si>
+  <si>
+    <t>The professor’s magisterial presence in the lecture hall commanded the attention of all the students.</t>
+  </si>
+  <si>
+    <t>The contract imposed onerous conditions that made it nearly impossible for the company to comply.</t>
+  </si>
+  <si>
+    <t>The politician faced widespread opprobrium after his unethical actions were exposed to the public.</t>
+  </si>
+  <si>
+    <t>The parsimonious landlord refused to spend money on essential repairs for the apartment.</t>
+  </si>
+  <si>
+    <t>The discussion focused on peripheral issues rather than addressing the core problem at hand.</t>
+  </si>
+  <si>
+    <t>His provocative remarks during the panel discussion sparked a heated debate among the participants.</t>
+  </si>
+  <si>
+    <t>She decided to renounce her title as a sign of solidarity with the common people.</t>
+  </si>
+  <si>
+    <t>Their tempestuous relationship was marked by frequent arguments and passionate reconciliations.</t>
+  </si>
+  <si>
+    <t>The scientist presented a tenable argument, backed by extensive data, to support her hypothesis.</t>
+  </si>
+  <si>
+    <t>The student’s transgression of cheating on the exam resulted in severe disciplinary action.</t>
+  </si>
+  <si>
+    <t>His urbane manners and polished speech made him a favorite at social gatherings.</t>
+  </si>
+  <si>
+    <t>The novel’s vivid descriptions lent a sense of verisimilitude to the fictional world it portrayed.</t>
+  </si>
+  <si>
+    <t>The presence of bias in the study’s methodology could vitiate the reliability of its conclusions.</t>
   </si>
 </sst>
 </file>
@@ -3426,11 +3693,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB46DAB-6DAD-47F2-BFB1-C20612ECF682}">
-  <dimension ref="A1:E331"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D322" sqref="D322"/>
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E351" sqref="E351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8561,7 +8828,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B302">
         <v>301</v>
@@ -8578,7 +8845,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B303">
         <v>302</v>
@@ -8595,7 +8862,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B304">
         <v>303</v>
@@ -8612,7 +8879,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B305">
         <v>304</v>
@@ -8629,7 +8896,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B306">
         <v>305</v>
@@ -8646,7 +8913,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B307">
         <v>306</v>
@@ -8663,7 +8930,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B308">
         <v>307</v>
@@ -8680,7 +8947,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B309">
         <v>308</v>
@@ -8697,7 +8964,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B310">
         <v>309</v>
@@ -8714,7 +8981,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B311">
         <v>310</v>
@@ -8731,7 +8998,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B312">
         <v>311</v>
@@ -8748,7 +9015,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B313">
         <v>312</v>
@@ -8765,7 +9032,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B314">
         <v>313</v>
@@ -8782,7 +9049,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B315">
         <v>314</v>
@@ -8799,7 +9066,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B316">
         <v>315</v>
@@ -8816,7 +9083,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B317">
         <v>316</v>
@@ -8833,7 +9100,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B318">
         <v>317</v>
@@ -8850,7 +9117,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B319">
         <v>318</v>
@@ -8867,7 +9134,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B320">
         <v>319</v>
@@ -8884,7 +9151,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B321">
         <v>320</v>
@@ -8901,7 +9168,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B322">
         <v>321</v>
@@ -8918,7 +9185,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B323">
         <v>322</v>
@@ -8935,7 +9202,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B324">
         <v>323</v>
@@ -8952,7 +9219,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B325">
         <v>324</v>
@@ -8969,7 +9236,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B326">
         <v>325</v>
@@ -8986,7 +9253,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B327">
         <v>326</v>
@@ -9003,7 +9270,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B328">
         <v>327</v>
@@ -9020,7 +9287,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B329">
         <v>328</v>
@@ -9037,7 +9304,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B330">
         <v>329</v>
@@ -9054,7 +9321,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B331">
         <v>330</v>
@@ -9069,8 +9336,518 @@
         <v>964</v>
       </c>
     </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>11</v>
+      </c>
+      <c r="B332">
+        <v>331</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>11</v>
+      </c>
+      <c r="B333">
+        <v>332</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>11</v>
+      </c>
+      <c r="B334">
+        <v>333</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>11</v>
+      </c>
+      <c r="B335">
+        <v>334</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>11</v>
+      </c>
+      <c r="B336">
+        <v>335</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>11</v>
+      </c>
+      <c r="B337">
+        <v>336</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>11</v>
+      </c>
+      <c r="B338">
+        <v>337</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>11</v>
+      </c>
+      <c r="B339">
+        <v>338</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>11</v>
+      </c>
+      <c r="B340">
+        <v>339</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>11</v>
+      </c>
+      <c r="B341">
+        <v>340</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>11</v>
+      </c>
+      <c r="B342">
+        <v>341</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>11</v>
+      </c>
+      <c r="B343">
+        <v>342</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>11</v>
+      </c>
+      <c r="B344">
+        <v>343</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>11</v>
+      </c>
+      <c r="B345">
+        <v>344</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>11</v>
+      </c>
+      <c r="B346">
+        <v>345</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>11</v>
+      </c>
+      <c r="B347">
+        <v>346</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>11</v>
+      </c>
+      <c r="B348">
+        <v>347</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>11</v>
+      </c>
+      <c r="B349">
+        <v>348</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>11</v>
+      </c>
+      <c r="B350">
+        <v>349</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>11</v>
+      </c>
+      <c r="B351">
+        <v>350</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>11</v>
+      </c>
+      <c r="B352">
+        <v>351</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>11</v>
+      </c>
+      <c r="B353">
+        <v>352</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>11</v>
+      </c>
+      <c r="B354">
+        <v>353</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>11</v>
+      </c>
+      <c r="B355">
+        <v>354</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>11</v>
+      </c>
+      <c r="B356">
+        <v>355</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>11</v>
+      </c>
+      <c r="B357">
+        <v>356</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>11</v>
+      </c>
+      <c r="B358">
+        <v>357</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>11</v>
+      </c>
+      <c r="B359">
+        <v>358</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>11</v>
+      </c>
+      <c r="B360">
+        <v>359</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>11</v>
+      </c>
+      <c r="B361">
+        <v>360</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E301" xr:uid="{6EB46DAB-6DAD-47F2-BFB1-C20612ECF682}"/>
+  <autoFilter ref="A1:E361" xr:uid="{6EB46DAB-6DAD-47F2-BFB1-C20612ECF682}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
